--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_1.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_1.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-7-3</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:08:21</t>
+          <t>18:06:02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Madame la baronne, Madame la Princesse a reçu votre aimable lettre au moment de son départ de Paris ..." à Salis, 1824-07-03, https://constance-de-salm.de/archiv/#/document/8915 #onthisday</t>
+          <t>»Madame la baronne, Madame la Princesse a reçu votre aimable lettre au moment de son départ de Paris ...« à Salis, 1824-07-03, https://constance-de-salm.de/archiv/#/document/8915 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-7-3</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08:26:37</t>
+          <t>13:46:13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Madame la baronne, Madame la Princesse a reçu votre aimable lettre au moment de son départ de Paris ..." à Salis, 1824-07-03, https://constance-de-salm.de/archiv/#/document/10341 #onthisday</t>
+          <t>»Madame la baronne, Madame la Princesse a reçu votre aimable lettre au moment de son départ de Paris ...« à Salis, 1824-07-03, https://constance-de-salm.de/archiv/#/document/10341 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-7-4</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:04:06</t>
+          <t>15:10:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Me voici ici, Monsieur, et je veux vous donner de mes nouvelles ainsi qu‘à ma fille ..." à Drais, 1814-07-04, https://constance-de-salm.de/archiv/#/document/6187 #onthisday</t>
+          <t>»Me voici ici, Monsieur, et je veux vous donner de mes nouvelles ainsi qu‘à ma fille ...« à Drais, 1814-07-04, https://constance-de-salm.de/archiv/#/document/6187 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,17 +544,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-7-4</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:41:16</t>
+          <t>16:57:13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"D'après ce qu'on m'écrit, Monsieur et ami, le jugement de l'Académie ..." à Barbier, 1817-07-04, https://constance-de-salm.de/archiv/#/document/4368 #onthisday</t>
+          <t>»D'après ce qu'on m'écrit, Monsieur et ami, le jugement de l'Académie ...« à Barbier, 1817-07-04, https://constance-de-salm.de/archiv/#/document/4368 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-7-5</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14:28:16</t>
+          <t>17:52:38</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre du 28, Monsieur, et je me hâte d’y répondre ..." à Pailliet, 1827-07-05, https://constance-de-salm.de/archiv/#/document/11368 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre du 28, Monsieur, et je me hâte d’y répondre ...« à Pailliet, 1827-07-05, https://constance-de-salm.de/archiv/#/document/11368 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-7-6</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19:29:16</t>
+          <t>08:29:03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Je commence à me reposer de mes fils, ma chère Minette ..." à Francq, 1814-07-06, https://constance-de-salm.de/archiv/#/document/6196 #onthisday</t>
+          <t>»Je commence à me reposer de mes fils, ma chère Minette ...« à Francq, 1814-07-06, https://constance-de-salm.de/archiv/#/document/6196 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-7-7</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10:09:51</t>
+          <t>18:01:25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"J'ai reçu, il y a trois jours, votre dernière lettre et je n'ai pu encore y répondre ..." à Barbier, 1817-07-07, https://constance-de-salm.de/archiv/#/document/4369 #onthisday</t>
+          <t>»J'ai reçu, il y a trois jours, votre dernière lettre et je n'ai pu encore y répondre ...« à Barbier, 1817-07-07, https://constance-de-salm.de/archiv/#/document/4369 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,17 +652,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-7-8</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:46:51</t>
+          <t>10:48:48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ..." à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/3991 #onthisday</t>
+          <t>»J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ...« à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/3991 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -679,17 +679,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-7-8</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:05:37</t>
+          <t>14:22:02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ..." à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/8287 #onthisday</t>
+          <t>»J’ai reçu votre lettre du …, mon ancien ami, et elle m’a fait grand plaisir: ...« à Raboteau, 1821-07-08, https://constance-de-salm.de/archiv/#/document/8287 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-7-9</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10:21:44</t>
+          <t>16:04:25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Il y a bien longtems, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais beaucoup de ne pas y avoir encore répondu ..." à Raboteau, 1805-07-09, https://constance-de-salm.de/archiv/#/document/3878 #onthisday</t>
+          <t>»Il y a bien longtems, Monsieur, que j’ai reçu votre très aimable lettre, et je me reprocherais beaucoup de ne pas y avoir encore répondu ...« à Raboteau, 1805-07-09, https://constance-de-salm.de/archiv/#/document/3878 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,17 +733,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-7-10</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:18:39</t>
+          <t>13:45:44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Puisque vous partez bientôt pour Wordt (?), mon cher voisin, je ne veux pas tarder à répondre à votre bonne et aimable lettre ..." à Hompesch-Rurich, 1828-07-10, https://constance-de-salm.de/archiv/#/document/9182 #onthisday</t>
+          <t>»Puisque vous partez bientôt pour Wordt (?), mon cher voisin, je ne veux pas tarder à répondre à votre bonne et aimable lettre ...« à Hompesch-Rurich, 1828-07-10, https://constance-de-salm.de/archiv/#/document/9182 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-7-11</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13:05:07</t>
+          <t>14:25:35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Je ne pars pas demain, ma chère Minette ..." à Francq, 1814-07-11, https://constance-de-salm.de/archiv/#/document/6188 #onthisday</t>
+          <t>»Je ne pars pas demain, ma chère Minette ...« à Francq, 1814-07-11, https://constance-de-salm.de/archiv/#/document/6188 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-7-11</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17:57:20</t>
+          <t>18:08:48</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Je laisse cueillir des fraises, Monsieur, je suis charmée du ce qu'elles vous ont fait du bien, et à ces dames ..." à Prous, 1816-07-11, https://constance-de-salm.de/archiv/#/document/4316 #onthisday</t>
+          <t>»Je laisse cueillir des fraises, Monsieur, je suis charmée du ce qu'elles vous ont fait du bien, et à ces dames ...« à Prous, 1816-07-11, https://constance-de-salm.de/archiv/#/document/4316 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-7-12</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12:07:12</t>
+          <t>13:51:10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ..." à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/2081 #onthisday</t>
+          <t>»Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ...« à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/2081 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-7-12</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13:37:18</t>
+          <t>11:18:38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ..." à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/3883 #onthisday</t>
+          <t>»Je ne vous écris qu’un mot aujourd’hui, parce que je n'ai pas le temps ...« à Raboteau, 1807-07-12, https://constance-de-salm.de/archiv/#/document/3883 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-7-13</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:25:39</t>
+          <t>15:18:03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"Je vous écris par extraordinaire, Monsieur, pour vous dire que la petite caisse n’est pas encore arrivée ..." à Drais, 1828-07-13, https://constance-de-salm.de/archiv/#/document/9197 #onthisday</t>
+          <t>»Je vous écris par extraordinaire, Monsieur, pour vous dire que la petite caisse n’est pas encore arrivée ...« à Drais, 1828-07-13, https://constance-de-salm.de/archiv/#/document/9197 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-7-14</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19:45:34</t>
+          <t>19:17:56</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Le diable, je crois, se mêle de nos affaires, ma chère amie, car mille obstacles ..." à Salis, 1800-07-14, https://constance-de-salm.de/archiv/#/document/8594 #onthisday</t>
+          <t>»Le diable, je crois, se mêle de nos affaires, ma chère amie, car mille obstacles ...« à Salis, 1800-07-14, https://constance-de-salm.de/archiv/#/document/8594 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-7-14</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12:57:25</t>
+          <t>13:11:15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Le diable, je crois, se mêle de nos affaires, ma chère amie, car mille obstacles ..." à Salis, 1800-07-14, https://constance-de-salm.de/archiv/#/document/10422 #onthisday</t>
+          <t>»Le diable, je crois, se mêle de nos affaires, ma chère amie, car mille obstacles ...« à Salis, 1800-07-14, https://constance-de-salm.de/archiv/#/document/10422 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-7-15</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17:41:15</t>
+          <t>17:13:43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Voici des flots de journaux, mon voisin, et par excès de courtoisie le fameux manuscrit; ..." à Prous, 1817-07-15, https://constance-de-salm.de/archiv/#/document/2813 #onthisday</t>
+          <t>»Voici des flots de journaux, mon voisin, et par excès de courtoisie le fameux manuscrit; ...« à Prous, 1817-07-15, https://constance-de-salm.de/archiv/#/document/2813 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-7-15</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16:12:17</t>
+          <t>09:40:12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Voici des flots de journaux, mon voisin, et par excès de courtoisie le fameux manuscrit; ..." à Prous, 1817-07-15, https://constance-de-salm.de/archiv/#/document/4370 #onthisday</t>
+          <t>»Voici des flots de journaux, mon voisin, et par excès de courtoisie le fameux manuscrit; ...« à Prous, 1817-07-15, https://constance-de-salm.de/archiv/#/document/4370 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-7-16</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15:41:20</t>
+          <t>15:43:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Je me reprocherais fort de ne pas vous avoir encore répondu, Monsieur et ancien ami, si cela m’eut été possible; ..." à Duval, 1827-07-16, https://constance-de-salm.de/archiv/#/document/9082 #onthisday</t>
+          <t>»Je me reprocherais fort de ne pas vous avoir encore répondu, Monsieur et ancien ami, si cela m’eut été possible; ...« à Duval, 1827-07-16, https://constance-de-salm.de/archiv/#/document/9082 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-7-16</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10:36:21</t>
+          <t>19:40:23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Un petit séjour que j’ai fait à Aix-la-Chapelle, Monsieur, m’a fait recevoir beaucoup plus tard ..." à Asfeld, 1829-07-16, https://constance-de-salm.de/archiv/#/document/9403 #onthisday</t>
+          <t>»Un petit séjour que j’ai fait à Aix-la-Chapelle, Monsieur, m’a fait recevoir beaucoup plus tard ...« à Asfeld, 1829-07-16, https://constance-de-salm.de/archiv/#/document/9403 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-7-17</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10:06:54</t>
+          <t>15:23:57</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur, que vous êtes malade dans votre lit, et j'en suis très peinée, je vous l'assure ..." à Prous, 1816-07-17, https://constance-de-salm.de/archiv/#/document/4317 #onthisday</t>
+          <t>»On me dit, Monsieur, que vous êtes malade dans votre lit, et j'en suis très peinée, je vous l'assure ...« à Prous, 1816-07-17, https://constance-de-salm.de/archiv/#/document/4317 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-7-18</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12:40:55</t>
+          <t>11:46:38</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur et ami, que nous n'ayons jasé ensemble! ..." à Raboteau, 1816-07-18, https://constance-de-salm.de/archiv/#/document/3931 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur et ami, que nous n'ayons jasé ensemble! ...« à Raboteau, 1816-07-18, https://constance-de-salm.de/archiv/#/document/3931 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-7-18</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17:41:27</t>
+          <t>16:57:15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur et ami, que nous n'ayons jasé ensemble! ..." à Raboteau, 1816-07-18, https://constance-de-salm.de/archiv/#/document/4318 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur et ami, que nous n'ayons jasé ensemble! ...« à Raboteau, 1816-07-18, https://constance-de-salm.de/archiv/#/document/4318 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-7-19</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08:20:34</t>
+          <t>18:55:28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"C'est par toi que je commence, cher frère ..." à Théis, 1814-07-19, https://constance-de-salm.de/archiv/#/document/6192 #onthisday</t>
+          <t>»C'est par toi que je commence, cher frère ...« à Théis, 1814-07-19, https://constance-de-salm.de/archiv/#/document/6192 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-7-20</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17:03:29</t>
+          <t>15:12:10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Je profite d’un contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre aimable lettre ..." à Raboteau, 1809-07-20, https://constance-de-salm.de/archiv/#/document/2130 #onthisday</t>
+          <t>»Je profite d’un contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre aimable lettre ...« à Raboteau, 1809-07-20, https://constance-de-salm.de/archiv/#/document/2130 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-7-20</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19:08:35</t>
+          <t>09:38:30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Je profite d’un contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre aimable lettre ..." à Raboteau, 1809-07-20, https://constance-de-salm.de/archiv/#/document/3889 #onthisday</t>
+          <t>»Je profite d’un contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre aimable lettre ...« à Raboteau, 1809-07-20, https://constance-de-salm.de/archiv/#/document/3889 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-7-21</t>
+          <t>2024-07-21</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14:35:38</t>
+          <t>12:05:39</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Il me semble, Monsieur et ancien ami, que depuis plus de vingt ans, je commence les lettres que je vous écris ..." à Duval, 1829-07-21, https://constance-de-salm.de/archiv/#/document/9435 #onthisday</t>
+          <t>»Il me semble, Monsieur et ancien ami, que depuis plus de vingt ans, je commence les lettres que je vous écris ...« à Duval, 1829-07-21, https://constance-de-salm.de/archiv/#/document/9435 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-7-22</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11:09:44</t>
+          <t>09:47:39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, je n’ai aucune nouvelle de toi, de ton oncle, de M. Drais ..." à Francq, 1815-07-22, https://constance-de-salm.de/archiv/#/document/8904 #onthisday</t>
+          <t>»Ma chère Minette, je n’ai aucune nouvelle de toi, de ton oncle, de M. Drais ...« à Francq, 1815-07-22, https://constance-de-salm.de/archiv/#/document/8904 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-7-22</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11:51:27</t>
+          <t>17:29:47</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Je profite de l’occasion de Monsieur Canot qui retourne à Paris, mon ancien ami, pour écrire une foule de petits billets, et je veux ..." à Ponce, 1826-07-22, https://constance-de-salm.de/archiv/#/document/9022 #onthisday</t>
+          <t>»Je profite de l’occasion de Monsieur Canot qui retourne à Paris, mon ancien ami, pour écrire une foule de petits billets, et je veux ...« à Ponce, 1826-07-22, https://constance-de-salm.de/archiv/#/document/9022 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-7-23</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19:37:08</t>
+          <t>12:30:01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Il y a déjà fort longtemps, Monsieur, que je me propose de vous répondre, mais je me suis trouvée si accablée ..." à Mirault, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9213 #onthisday</t>
+          <t>»Il y a déjà fort longtemps, Monsieur, que je me propose de vous répondre, mais je me suis trouvée si accablée ...« à Mirault, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9213 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-7-23</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19:42:40</t>
+          <t>13:18:51</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Votre dernière lettre s’est croisée avec la mienne, Monsieur, et je ne vous ai pas encore félicité ..." à Barbier, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9214 #onthisday</t>
+          <t>»Votre dernière lettre s’est croisée avec la mienne, Monsieur, et je ne vous ai pas encore félicité ...« à Barbier, 1828-07-23, https://constance-de-salm.de/archiv/#/document/9214 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-7-24</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>08:24:43</t>
+          <t>09:32:35</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Je retrouve dans mes papiers une lettre de vous, Monsieur ..." à N.N., 1798-07-24, https://constance-de-salm.de/archiv/#/document/8524 #onthisday</t>
+          <t>»Je retrouve dans mes papiers une lettre de vous, Monsieur ...« à N.N., 1798-07-24, https://constance-de-salm.de/archiv/#/document/8524 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-7-25</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:53:09</t>
+          <t>09:19:54</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"J’ai depuis quelque temps un mal de gorge, une ébullition et mille petits maux ..." à Gudin de La Brenellerie, 1811-07-25, https://constance-de-salm.de/archiv/#/document/2225 #onthisday</t>
+          <t>»J’ai depuis quelque temps un mal de gorge, une ébullition et mille petits maux ...« à Gudin de La Brenellerie, 1811-07-25, https://constance-de-salm.de/archiv/#/document/2225 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-7-26</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16:43:13</t>
+          <t>14:38:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ..." à Raboteau, 1817-07-26, https://constance-de-salm.de/archiv/#/document/4374 #onthisday</t>
+          <t>»J'ai reçu presqu'au moment où je partais pour venir ici votre tout agréable bulletin ...« à Raboteau, 1817-07-26, https://constance-de-salm.de/archiv/#/document/4374 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-7-26</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15:14:48</t>
+          <t>10:54:19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je projette de vous écrire ..." à Laya, 1818-07-26, https://constance-de-salm.de/archiv/#/document/4443 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je projette de vous écrire ...« à Laya, 1818-07-26, https://constance-de-salm.de/archiv/#/document/4443 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-7-27</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18:39:37</t>
+          <t>09:58:43</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"En me dévouant presque entièrement à la culture des lettres ..." à N.N., 1793-07-27, https://constance-de-salm.de/archiv/#/document/8437 #onthisday</t>
+          <t>»En me dévouant presque entièrement à la culture des lettres ...« à N.N., 1793-07-27, https://constance-de-salm.de/archiv/#/document/8437 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-7-28</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17:30:15</t>
+          <t>15:38:16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Je reçois votre seconde lettre, Monsieur, et j’y réponds à l’instant ..." à Pailliet, 1826-07-28, https://constance-de-salm.de/archiv/#/document/11359 #onthisday</t>
+          <t>»Je reçois votre seconde lettre, Monsieur, et j’y réponds à l’instant ...« à Pailliet, 1826-07-28, https://constance-de-salm.de/archiv/#/document/11359 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-7-29</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17:23:28</t>
+          <t>18:26:22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Voilà bien des fois que je t’écris depuis 15 jours, ma chère Minette ..." à Francq, 1815-07-29, https://constance-de-salm.de/archiv/#/document/6223 #onthisday</t>
+          <t>»Voilà bien des fois que je t’écris depuis 15 jours, ma chère Minette ...« à Francq, 1815-07-29, https://constance-de-salm.de/archiv/#/document/6223 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-7-29</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13:49:08</t>
+          <t>19:02:20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Me voilà enfin à peu près rétablie, mon cher Duval, et mon premier soin est de vous remercier de la toute aimable surprise ..." à Duval, 1828-07-29, https://constance-de-salm.de/archiv/#/document/9215 #onthisday</t>
+          <t>»Me voilà enfin à peu près rétablie, mon cher Duval, et mon premier soin est de vous remercier de la toute aimable surprise ...« à Duval, 1828-07-29, https://constance-de-salm.de/archiv/#/document/9215 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-7-30</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08:19:42</t>
+          <t>18:27:19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Malade ou non malade, je compte sur vos ..." à Prous, 1816-07-30, https://constance-de-salm.de/archiv/#/document/4320 #onthisday</t>
+          <t>»Malade ou non malade, je compte sur vos ...« à Prous, 1816-07-30, https://constance-de-salm.de/archiv/#/document/4320 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-7-31</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18:40:18</t>
+          <t>19:28:33</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Votre dernière lettre m'a fait croire que mon affaire est finie ..." à Barbier, 1817-07-31, https://constance-de-salm.de/archiv/#/document/4375 #onthisday</t>
+          <t>»Votre dernière lettre m'a fait croire que mon affaire est finie ...« à Barbier, 1817-07-31, https://constance-de-salm.de/archiv/#/document/4375 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-8-1</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18:55:15</t>
+          <t>09:41:34</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"On me dit, Monsieur et ami, que vous êtes encore malade ..." à Raboteau, 1812-08-01, https://constance-de-salm.de/archiv/#/document/2277 #onthisday</t>
+          <t>»On me dit, Monsieur et ami, que vous êtes encore malade ...« à Raboteau, 1812-08-01, https://constance-de-salm.de/archiv/#/document/2277 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-8-2</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08:24:25</t>
+          <t>08:14:17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"J’ai reçu ces jours-ci, Monsieur et ami, votre dernière lettre ..." à Raboteau, 1811-08-02, https://constance-de-salm.de/archiv/#/document/2226 #onthisday</t>
+          <t>»J’ai reçu ces jours-ci, Monsieur et ami, votre dernière lettre ...« à Raboteau, 1811-08-02, https://constance-de-salm.de/archiv/#/document/2226 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-8-2</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:07:01</t>
+          <t>14:14:12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"J’ai reçu ces jours-cy, Monsieur et ami, votre dernière lettre ..." à Raboteau, 1811-08-02, https://constance-de-salm.de/archiv/#/document/3899 #onthisday</t>
+          <t>»J’ai reçu ces jours-cy, Monsieur et ami, votre dernière lettre ...« à Raboteau, 1811-08-02, https://constance-de-salm.de/archiv/#/document/3899 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-8-3</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>15:23:48</t>
+          <t>18:28:55</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Je suis bien coupable envers vous, ma chère et intéressante élève, car je vous dois une réponse ..." à Salis, 1799-08-03, https://constance-de-salm.de/archiv/#/document/8573 #onthisday</t>
+          <t>»Je suis bien coupable envers vous, ma chère et intéressante élève, car je vous dois une réponse ...« à Salis, 1799-08-03, https://constance-de-salm.de/archiv/#/document/8573 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-8-3</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13:41:30</t>
+          <t>15:56:41</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Je suis bien coupable envers vous, ma chère et intéressante élève, car je vous dois une réponse depuis bien longtemps ..." à Salis, 1799-08-03, https://constance-de-salm.de/archiv/#/document/5135 #onthisday</t>
+          <t>»Je suis bien coupable envers vous, ma chère et intéressante élève, car je vous dois une réponse depuis bien longtemps ...« à Salis, 1799-08-03, https://constance-de-salm.de/archiv/#/document/5135 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-8-4</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16:27:48</t>
+          <t>12:14:20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici ..." à Raboteau, 1806-08-04, https://constance-de-salm.de/archiv/#/document/1800 #onthisday</t>
+          <t>»J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici ...« à Raboteau, 1806-08-04, https://constance-de-salm.de/archiv/#/document/1800 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-8-4</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16:54:50</t>
+          <t>14:47:32</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici ..." à Raboteau, 1806-08-04, https://constance-de-salm.de/archiv/#/document/8681 #onthisday</t>
+          <t>»J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici ...« à Raboteau, 1806-08-04, https://constance-de-salm.de/archiv/#/document/8681 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-8-5</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11:42:44</t>
+          <t>11:03:57</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ..." à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/2106 #onthisday</t>
+          <t>»Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ...« à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/2106 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-8-5</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12:53:03</t>
+          <t>08:06:34</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ..." à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/3886 #onthisday</t>
+          <t>»Que je vous écrive un mot, Monsieur et ami, pour vous assurer que nous pensons souvent à vous ...« à Raboteau, 1808-08-05, https://constance-de-salm.de/archiv/#/document/3886 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-8-6</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14:28:42</t>
+          <t>10:48:49</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Il ne m’a pas été possible de t’écrire ..." à Francq, 1816-08-06, https://constance-de-salm.de/archiv/#/document/6296 #onthisday</t>
+          <t>»Il ne m’a pas été possible de t’écrire ...« à Francq, 1816-08-06, https://constance-de-salm.de/archiv/#/document/6296 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-8-7</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16:27:30</t>
+          <t>13:12:12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Je ne veux point différer encore le départ de cette lettre, mon ancien ami ..." à Mentelle, 1812-08-07, https://constance-de-salm.de/archiv/#/document/4158 #onthisday</t>
+          <t>»Je ne veux point différer encore le départ de cette lettre, mon ancien ami ...« à Mentelle, 1812-08-07, https://constance-de-salm.de/archiv/#/document/4158 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-8-8</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19:14:54</t>
+          <t>17:04:06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur et ami, les deux premières lettres que vous m'avez écrites ..." à Raboteau, 1815-08-08, https://constance-de-salm.de/archiv/#/document/3922 #onthisday</t>
+          <t>»J'ai reçu, Monsieur et ami, les deux premières lettres que vous m'avez écrites ...« à Raboteau, 1815-08-08, https://constance-de-salm.de/archiv/#/document/3922 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-8-8</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13:33:20</t>
+          <t>18:16:23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur et ami, les deux premières lettres que vous m'avez écrites ..." à Raboteau, 1815-08-08, https://constance-de-salm.de/archiv/#/document/4273 #onthisday</t>
+          <t>»J'ai reçu, Monsieur et ami, les deux premières lettres que vous m'avez écrites ...« à Raboteau, 1815-08-08, https://constance-de-salm.de/archiv/#/document/4273 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-8-9</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12:56:25</t>
+          <t>15:49:15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Il me semble, mon ancienne et chère voisine, que je dois vous écrire sur la perte ..." à Gay, 1819-08-09, https://constance-de-salm.de/archiv/#/document/4478 #onthisday</t>
+          <t>»Il me semble, mon ancienne et chère voisine, que je dois vous écrire sur la perte ...« à Gay, 1819-08-09, https://constance-de-salm.de/archiv/#/document/4478 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-8-9</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18:33:48</t>
+          <t>14:25:12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Ce n'a pas été sans une grande émotion que j'ai lu la lettre où vous m'annoncez ..." à Barbier, 1821-08-09, https://constance-de-salm.de/archiv/#/document/4662 #onthisday</t>
+          <t>»Ce n'a pas été sans une grande émotion que j'ai lu la lettre où vous m'annoncez ...« à Barbier, 1821-08-09, https://constance-de-salm.de/archiv/#/document/4662 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-8-10</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11:17:41</t>
+          <t>09:16:36</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Je profite encore du contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre bonne et aimable lettre ..." à Raboteau, 1809-08-10, https://constance-de-salm.de/archiv/#/document/2133 #onthisday</t>
+          <t>»Je profite encore du contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre bonne et aimable lettre ...« à Raboteau, 1809-08-10, https://constance-de-salm.de/archiv/#/document/2133 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-8-10</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13:31:52</t>
+          <t>08:48:19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Je profite encore du contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre bonne et aimable lettre ..." à Raboteau, 1809-08-10, https://constance-de-salm.de/archiv/#/document/3890 #onthisday</t>
+          <t>»Je profite encore du contreseing, Monsieur et ami, pour vous dire que j’ai reçu votre bonne et aimable lettre ...« à Raboteau, 1809-08-10, https://constance-de-salm.de/archiv/#/document/3890 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-8-11</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>19:09:29</t>
+          <t>17:24:36</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Je ne veux point, Monsieur, laisser partir une lettre que je viens d‘écrire au Général sans vous faire mon compliment ..." à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9218 #onthisday</t>
+          <t>»Je ne veux point, Monsieur, laisser partir une lettre que je viens d‘écrire au Général sans vous faire mon compliment ...« à Maison, 1828-08-11, https://constance-de-salm.de/archiv/#/document/9218 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-8-12</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14:55:33</t>
+          <t>15:52:03</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Il faut que je sois dans une ville pour avoir le temps d'écrire, Monsieur ..." à Raboteau, 1818-08-12, https://constance-de-salm.de/archiv/#/document/3947 #onthisday</t>
+          <t>»Il faut que je sois dans une ville pour avoir le temps d'écrire, Monsieur ...« à Raboteau, 1818-08-12, https://constance-de-salm.de/archiv/#/document/3947 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-8-13</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16:26:15</t>
+          <t>17:11:58</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"De deux écrits officiels / Je me plais à grossir une lettre / Et plus ils sont essentiels / Plus je jouis de les y mettre ..." à Ladoucette, 1813-08-13, https://constance-de-salm.de/archiv/#/document/2305 #onthisday</t>
+          <t>»De deux écrits officiels / Je me plais à grossir une lettre / Et plus ils sont essentiels / Plus je jouis de les y mettre ...« à Ladoucette, 1813-08-13, https://constance-de-salm.de/archiv/#/document/2305 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024-8-14</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>09:37:10</t>
+          <t>13:42:06</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre aimable lettre, ma chère élève, et je suis bien sensible aux assurances d'amitié que vous me donnez ..." à Salis, 1800-08-14, https://constance-de-salm.de/archiv/#/document/8597 #onthisday</t>
+          <t>»J'ai reçu hier votre aimable lettre, ma chère élève, et je suis bien sensible aux assurances d'amitié que vous me donnez ...« à Salis, 1800-08-14, https://constance-de-salm.de/archiv/#/document/8597 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-8-15</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>15:15:50</t>
+          <t>18:25:36</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Il m'a été impossible, bon et cher voisin, de me décider ..." à Langlès, 1820-08-15, https://constance-de-salm.de/archiv/#/document/6759 #onthisday</t>
+          <t>»Il m'a été impossible, bon et cher voisin, de me décider ...« à Langlès, 1820-08-15, https://constance-de-salm.de/archiv/#/document/6759 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-8-15</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>12:45:57</t>
+          <t>08:01:49</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Votre lettre du 2 m'a fait le plus grand plaisir, Monsieur et ami ..." à Barbier, 1823-08-15, https://constance-de-salm.de/archiv/#/document/73 #onthisday</t>
+          <t>»Votre lettre du 2 m'a fait le plus grand plaisir, Monsieur et ami ...« à Barbier, 1823-08-15, https://constance-de-salm.de/archiv/#/document/73 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-8-16</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12:14:27</t>
+          <t>11:52:51</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Monsieur le baron de Ladoucette que vous avez vu, je crois, chez moi, Monsieur et ancien ami, a un fils ..." à Riche de Prony, 1829-08-16, https://constance-de-salm.de/archiv/#/document/9456 #onthisday</t>
+          <t>»Monsieur le baron de Ladoucette que vous avez vu, je crois, chez moi, Monsieur et ancien ami, a un fils ...« à Riche de Prony, 1829-08-16, https://constance-de-salm.de/archiv/#/document/9456 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-8-17</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>19:57:53</t>
+          <t>10:36:18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Je ne veux point différer encore le départ de cette lettre, mon cher ami, puisque je n’ai pas le loisir d’y joindre beaucoup d’autres détails ..." à Mentelle, 1812-08-17, https://constance-de-salm.de/archiv/#/document/2278 #onthisday</t>
+          <t>»Je ne veux point différer encore le départ de cette lettre, mon cher ami, puisque je n’ai pas le loisir d’y joindre beaucoup d’autres détails ...« à Mentelle, 1812-08-17, https://constance-de-salm.de/archiv/#/document/2278 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-8-17</t>
+          <t>2024-08-17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>19:57:21</t>
+          <t>17:14:53</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer moi-même, Monsieur, que je suis heureusement arrivée à Dyck ..." à Barbier, 1814-08-17, https://constance-de-salm.de/archiv/#/document/2324 #onthisday</t>
+          <t>»Je veux vous annoncer moi-même, Monsieur, que je suis heureusement arrivée à Dyck ...« à Barbier, 1814-08-17, https://constance-de-salm.de/archiv/#/document/2324 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-8-18</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12:11:16</t>
+          <t>11:02:27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Nous avons bien regretté, Monsieur, de ne pas vous avoir vu avant, pendant ni après notre fête du 15 ..." à Théremin, 1807-08-18, https://constance-de-salm.de/archiv/#/document/2089 #onthisday</t>
+          <t>»Nous avons bien regretté, Monsieur, de ne pas vous avoir vu avant, pendant ni après notre fête du 15 ...« à Théremin, 1807-08-18, https://constance-de-salm.de/archiv/#/document/2089 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-8-19</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15:40:36</t>
+          <t>19:58:01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je puis avoir des nouvelles de mes amis ..." à Barbier, 1815-08-19, https://constance-de-salm.de/archiv/#/document/4274 #onthisday</t>
+          <t>»Enfin, Monsieur, je puis avoir des nouvelles de mes amis ...« à Barbier, 1815-08-19, https://constance-de-salm.de/archiv/#/document/4274 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-8-19</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16:23:36</t>
+          <t>14:14:02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Mille compliments à Monsieur Prous et à son aimable hôtesse s'il l'a encore ..." à Prous, 1816-08-19, https://constance-de-salm.de/archiv/#/document/2798 #onthisday</t>
+          <t>»Mille compliments à Monsieur Prous et à son aimable hôtesse s'il l'a encore ...« à Prous, 1816-08-19, https://constance-de-salm.de/archiv/#/document/2798 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-8-20</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16:54:31</t>
+          <t>10:22:04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Je serais bien confuse de mon long silence, Monsieur, si je ne savais ..." à Barbier, 1819-08-20, https://constance-de-salm.de/archiv/#/document/4479 #onthisday</t>
+          <t>»Je serais bien confuse de mon long silence, Monsieur, si je ne savais ...« à Barbier, 1819-08-20, https://constance-de-salm.de/archiv/#/document/4479 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-8-20</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>09:21:32</t>
+          <t>18:18:41</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant, Monsieur, une lettre de M. Evelt ..." à Pailliet, 1824-08-20, https://constance-de-salm.de/archiv/#/document/11039 #onthisday</t>
+          <t>»Je reçois à l'instant, Monsieur, une lettre de M. Evelt ...« à Pailliet, 1824-08-20, https://constance-de-salm.de/archiv/#/document/11039 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-8-21</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08:02:40</t>
+          <t>16:12:19</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Que je vous dois de remerciements, Monsieur et ami, pour votre bonne et aimable lettre! ..." à Raboteau, 1810-08-21, https://constance-de-salm.de/archiv/#/document/3892 #onthisday</t>
+          <t>»Que je vous dois de remerciements, Monsieur et ami, pour votre bonne et aimable lettre! ...« à Raboteau, 1810-08-21, https://constance-de-salm.de/archiv/#/document/3892 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-8-21</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12:06:20</t>
+          <t>19:54:24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"n'ai plus ni pensées ni forces ..." à Thurn und Taxis, 1824-08-21, https://constance-de-salm.de/archiv/#/document/5822 #onthisday</t>
+          <t>»n'ai plus ni pensées ni forces ...« à Thurn und Taxis, 1824-08-21, https://constance-de-salm.de/archiv/#/document/5822 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-8-22</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>09:12:58</t>
+          <t>10:31:21</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre dernière lettre, Monsieur et ami ..." à Raboteau, 1813-08-22, https://constance-de-salm.de/archiv/#/document/2307 #onthisday</t>
+          <t>»Je reçois ici votre dernière lettre, Monsieur et ami ...« à Raboteau, 1813-08-22, https://constance-de-salm.de/archiv/#/document/2307 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-8-23</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09:11:08</t>
+          <t>12:39:07</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Je reçois votre dernière lettre, Monsieur et ami, et je m'empresse d'y répondre ..." à Barbier, 1817-08-23, https://constance-de-salm.de/archiv/#/document/4378 #onthisday</t>
+          <t>»Je reçois votre dernière lettre, Monsieur et ami, et je m'empresse d'y répondre ...« à Barbier, 1817-08-23, https://constance-de-salm.de/archiv/#/document/4378 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-8-24</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>17:18:28</t>
+          <t>09:19:05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Je ne sais, ma chère voisine, si vous êtes chez vous dans ce moment ..." à Hompesch, 1831-08-24, https://constance-de-salm.de/archiv/#/document/6560 #onthisday</t>
+          <t>»Je ne sais, ma chère voisine, si vous êtes chez vous dans ce moment ...« à Hompesch, 1831-08-24, https://constance-de-salm.de/archiv/#/document/6560 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-8-25</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>19:09:22</t>
+          <t>19:13:26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer, Monsieur et ami, mon heureuse arrivée dans mes grands et solitaires foyers ..." à Raboteau, 1815-08-25, https://constance-de-salm.de/archiv/#/document/2325 #onthisday</t>
+          <t>»Je veux vous annoncer, Monsieur et ami, mon heureuse arrivée dans mes grands et solitaires foyers ...« à Raboteau, 1815-08-25, https://constance-de-salm.de/archiv/#/document/2325 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-8-26</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10:51:55</t>
+          <t>17:43:01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"On n'entend plus parler de vous, mon cher voisin, êtes-vous mort? ..." à Prous, 1815-08-26, https://constance-de-salm.de/archiv/#/document/4275 #onthisday</t>
+          <t>»On n'entend plus parler de vous, mon cher voisin, êtes-vous mort? ...« à Prous, 1815-08-26, https://constance-de-salm.de/archiv/#/document/4275 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-8-27</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10:43:40</t>
+          <t>19:47:31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Que je vous dois de remerciments, Monsieur et ami, pour votre bonne et aimable lettre ..." à Raboteau, 1810-08-27, https://constance-de-salm.de/archiv/#/document/2165 #onthisday</t>
+          <t>»Que je vous dois de remerciments, Monsieur et ami, pour votre bonne et aimable lettre ...« à Raboteau, 1810-08-27, https://constance-de-salm.de/archiv/#/document/2165 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-8-28</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>12:22:11</t>
+          <t>09:46:32</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Mademoiselle, que je ne vous ai écrit; ..." à Salis, 1798-08-28, https://constance-de-salm.de/archiv/#/document/10395 #onthisday</t>
+          <t>»Il y a bien longtemps, Mademoiselle, que je ne vous ai écrit; ...« à Salis, 1798-08-28, https://constance-de-salm.de/archiv/#/document/10395 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-8-28</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15:44:18</t>
+          <t>11:23:54</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Mademoiselle, que je ne vous ai écrit; ..." à Salis, 1798-08-28, https://constance-de-salm.de/archiv/#/document/8531 #onthisday</t>
+          <t>»Il y a bien longtemps, Mademoiselle, que je ne vous ai écrit; ...« à Salis, 1798-08-28, https://constance-de-salm.de/archiv/#/document/8531 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-8-29</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>17:55:04</t>
+          <t>18:05:02</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Je suis vraiment bien fâchée, Monsieur et ami, de ne vous avoir pas eu pour auditeur ..." à Gudin de La Brenellerie, 1809-08-29, https://constance-de-salm.de/archiv/#/document/2134 #onthisday</t>
+          <t>»Je suis vraiment bien fâchée, Monsieur et ami, de ne vous avoir pas eu pour auditeur ...« à Gudin de La Brenellerie, 1809-08-29, https://constance-de-salm.de/archiv/#/document/2134 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-8-29</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>19:48:14</t>
+          <t>08:03:35</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Je suis vraiment bien fâchée, Monsieur et ami, de ne vous avoir pas eu pour auditeur ..." à Gudin de La Brenellerie, 1809-08-29, https://constance-de-salm.de/archiv/#/document/5626 #onthisday</t>
+          <t>»Je suis vraiment bien fâchée, Monsieur et ami, de ne vous avoir pas eu pour auditeur ...« à Gudin de La Brenellerie, 1809-08-29, https://constance-de-salm.de/archiv/#/document/5626 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-8-30</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>18:31:25</t>
+          <t>19:52:19</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"J’ai aujourd’hui tant d’embarras, ma chère Minette, que je ne sais par quel bout m’y prendre pour me tirer d’affaires ..." à Francq, 1814-08-30, https://constance-de-salm.de/archiv/#/document/6200 #onthisday</t>
+          <t>»J’ai aujourd’hui tant d’embarras, ma chère Minette, que je ne sais par quel bout m’y prendre pour me tirer d’affaires ...« à Francq, 1814-08-30, https://constance-de-salm.de/archiv/#/document/6200 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024-8-30</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:48:09</t>
+          <t>19:32:45</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant une lettre d'un de mes amis, Monsieur ..." à Barbier, 1817-08-30, https://constance-de-salm.de/archiv/#/document/4379 #onthisday</t>
+          <t>»Je reçois à l'instant une lettre d'un de mes amis, Monsieur ...« à Barbier, 1817-08-30, https://constance-de-salm.de/archiv/#/document/4379 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024-8-31</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>18:17:43</t>
+          <t>11:35:15</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Je pars le cœur rempli de votre grâce extrême / De vos nobles bontés, dont l’attrait est si doux / Je m’éloigne à regrets, de ce charme suprême ..." à Bonaparte, 1811-08-31, https://constance-de-salm.de/archiv/#/document/2229 #onthisday</t>
+          <t>»Je pars le cœur rempli de votre grâce extrême / De vos nobles bontés, dont l’attrait est si doux / Je m’éloigne à regrets, de ce charme suprême ...« à Bonaparte, 1811-08-31, https://constance-de-salm.de/archiv/#/document/2229 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024-9-1</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>13:45:42</t>
+          <t>12:25:06</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Je reviens d’Aix, Monsieur, et ne trouvant pas de lettres ici je suppose que tout va bien et je m’en félicite ..." à Drais, 1815-09-01, https://constance-de-salm.de/archiv/#/document/6243 #onthisday</t>
+          <t>»Je reviens d’Aix, Monsieur, et ne trouvant pas de lettres ici je suppose que tout va bien et je m’en félicite ...« à Drais, 1815-09-01, https://constance-de-salm.de/archiv/#/document/6243 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024-9-2</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>18:56:05</t>
+          <t>11:42:35</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Madame la baronne, Madame la comtesse étant fort occupée par la fête de Monsieur le comte ..." à Francq, 1814-09-02, https://constance-de-salm.de/archiv/#/document/6204 #onthisday</t>
+          <t>»Madame la baronne, Madame la comtesse étant fort occupée par la fête de Monsieur le comte ...« à Francq, 1814-09-02, https://constance-de-salm.de/archiv/#/document/6204 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024-9-2</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>13:42:03</t>
+          <t>14:23:33</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Peut-être dans ce moment, ma chère Minette, m’as-tu déjà donné un petit-fils ..." à Francq, 1815-09-02, https://constance-de-salm.de/archiv/#/document/6237 #onthisday</t>
+          <t>»Peut-être dans ce moment, ma chère Minette, m’as-tu déjà donné un petit-fils ...« à Francq, 1815-09-02, https://constance-de-salm.de/archiv/#/document/6237 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024-9-3</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18:12:21</t>
+          <t>11:53:03</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a 2 jours la lettre du 24, ma chère Minette, et j’ai vu avec bien de la peine que Monsieur Drais t’avait innocemment trompée sur ma prétendue arrivée ..." à Francq, 1815-09-03, https://constance-de-salm.de/archiv/#/document/6241 #onthisday</t>
+          <t>»J’ai reçu il y a 2 jours la lettre du 24, ma chère Minette, et j’ai vu avec bien de la peine que Monsieur Drais t’avait innocemment trompée sur ma prétendue arrivée ...« à Francq, 1815-09-03, https://constance-de-salm.de/archiv/#/document/6241 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024-9-4</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11:07:24</t>
+          <t>11:27:01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm regrette vivement que Madame la maréchale ne puisse venir aujourd'hui ..." à Maison, 1830-09-04, https://constance-de-salm.de/archiv/#/document/5187 #onthisday</t>
+          <t>»La Princesse de Salm regrette vivement que Madame la maréchale ne puisse venir aujourd'hui ...« à Maison, 1830-09-04, https://constance-de-salm.de/archiv/#/document/5187 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024-9-5</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>12:25:06</t>
+          <t>17:04:12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"C’est bien à mon tour, Monsieur, à vous remercier de votre aimable et longue lettre ..." à Raboteau, 1811-09-05, https://constance-de-salm.de/archiv/#/document/2233 #onthisday</t>
+          <t>»C’est bien à mon tour, Monsieur, à vous remercier de votre aimable et longue lettre ...« à Raboteau, 1811-09-05, https://constance-de-salm.de/archiv/#/document/2233 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024-9-6</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>19:28:58</t>
+          <t>10:18:10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Je ne veux pas tarder plus longtemps, ma chère élève, à vous envoyer la légère marque d’amitié ..." à Salis, 1799-09-06, https://constance-de-salm.de/archiv/#/document/10406 #onthisday</t>
+          <t>»Je ne veux pas tarder plus longtemps, ma chère élève, à vous envoyer la légère marque d’amitié ...« à Salis, 1799-09-06, https://constance-de-salm.de/archiv/#/document/10406 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024-9-7</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16:11:08</t>
+          <t>18:11:42</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Chère et aimable princesse, j'ai fait quelques changements à la petite pièce de vers ..." à Thurn und Taxis, 1819-09-07, https://constance-de-salm.de/archiv/#/document/4481 #onthisday</t>
+          <t>»Chère et aimable princesse, j'ai fait quelques changements à la petite pièce de vers ...« à Thurn und Taxis, 1819-09-07, https://constance-de-salm.de/archiv/#/document/4481 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024-9-8</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>12:19:50</t>
+          <t>08:44:25</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Tu n’auras qu’un mot aujourd’hui, ma chère Minette, j’ai les Hompesch et tout mon tems est pris ..." à Francq, 1815-09-08, https://constance-de-salm.de/archiv/#/document/6242 #onthisday</t>
+          <t>»Tu n’auras qu’un mot aujourd’hui, ma chère Minette, j’ai les Hompesch et tout mon tems est pris ...« à Francq, 1815-09-08, https://constance-de-salm.de/archiv/#/document/6242 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024-9-8</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>12:21:50</t>
+          <t>15:04:14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Air: On n'est pas perdu pour ça (bis) ..." à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/3949 #onthisday</t>
+          <t>»Air: On n'est pas perdu pour ça (bis) ...« à Raboteau, 1818-09-08, https://constance-de-salm.de/archiv/#/document/3949 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024-9-9</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>17:57:51</t>
+          <t>08:58:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur, votre seconde lettre, et je me hâte d’y répondre ..." à Châtelain, 1836-09-09, https://constance-de-salm.de/archiv/#/document/9840 #onthisday</t>
+          <t>»Je reçois, Monsieur, votre seconde lettre, et je me hâte d’y répondre ...« à Châtelain, 1836-09-09, https://constance-de-salm.de/archiv/#/document/9840 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024-9-10</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16:05:17</t>
+          <t>09:56:11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je prends la plume pour écrire autre chose que de l’allemand ..." à Raboteau, 1814-09-10, https://constance-de-salm.de/archiv/#/document/2326 #onthisday</t>
+          <t>»Enfin, Monsieur, je prends la plume pour écrire autre chose que de l’allemand ...« à Raboteau, 1814-09-10, https://constance-de-salm.de/archiv/#/document/2326 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-9-10</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>09:48:32</t>
+          <t>13:15:33</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je prends la plume pour écrire autre chose que de l’allemand ..." à Raboteau, 1814-09-10, https://constance-de-salm.de/archiv/#/document/3918 #onthisday</t>
+          <t>»Enfin, Monsieur, je prends la plume pour écrire autre chose que de l’allemand ...« à Raboteau, 1814-09-10, https://constance-de-salm.de/archiv/#/document/3918 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-9-11</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11:30:06</t>
+          <t>18:56:52</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Je reçois enfin, Monsieur, une longue lettre de M. Dufour ..." à Pailliet, 1825-09-11, https://constance-de-salm.de/archiv/#/document/11342 #onthisday</t>
+          <t>»Je reçois enfin, Monsieur, une longue lettre de M. Dufour ...« à Pailliet, 1825-09-11, https://constance-de-salm.de/archiv/#/document/11342 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-9-12</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>19:09:23</t>
+          <t>15:56:50</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"J’ai reçu une de tes lettres le lundi, jour-même de la fête de mon mari ..." à Francq, 1815-09-12, https://constance-de-salm.de/archiv/#/document/6239 #onthisday</t>
+          <t>»J’ai reçu une de tes lettres le lundi, jour-même de la fête de mon mari ...« à Francq, 1815-09-12, https://constance-de-salm.de/archiv/#/document/6239 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-9-12</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>19:14:49</t>
+          <t>08:10:04</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une note que j'ai rédigée ..." à Evelt, 1828-09-12, https://constance-de-salm.de/archiv/#/document/10143 #onthisday</t>
+          <t>»Voici, Monsieur, une note que j'ai rédigée ...« à Evelt, 1828-09-12, https://constance-de-salm.de/archiv/#/document/10143 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-9-13</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>13:30:07</t>
+          <t>13:44:08</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Citoyens, je lis avec surprise, dans votre feuille du 24, une lettre dans laquelle un anonyme parle en termes peu convenables ..." à N.N., 1801-09-13, https://constance-de-salm.de/archiv/#/document/8619 #onthisday</t>
+          <t>»Citoyens, je lis avec surprise, dans votre feuille du 24, une lettre dans laquelle un anonyme parle en termes peu convenables ...« à N.N., 1801-09-13, https://constance-de-salm.de/archiv/#/document/8619 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-9-14</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>19:01:26</t>
+          <t>17:26:04</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Je vous écris, Monsieur, d’un petit château où je suis depuis quelques jours ..." à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/2107 #onthisday</t>
+          <t>»Je vous écris, Monsieur, d’un petit château où je suis depuis quelques jours ...« à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/2107 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-9-14</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>18:05:17</t>
+          <t>09:01:05</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Je vous écris, Monsieur, d’un petit château sans meubles, où je suis depuis quelques jours ..." à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/9815 #onthisday</t>
+          <t>»Je vous écris, Monsieur, d’un petit château sans meubles, où je suis depuis quelques jours ...« à Gudin de La Brenellerie, 1808-09-14, https://constance-de-salm.de/archiv/#/document/9815 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-9-15</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16:11:23</t>
+          <t>08:48:49</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"J’ai reçu, ma chère Élève, vos cheveux et le souvenir dans lequel vous les avez enfermés ..." à Salis, 1799-09-15, https://constance-de-salm.de/archiv/#/document/8576 #onthisday</t>
+          <t>»J’ai reçu, ma chère Élève, vos cheveux et le souvenir dans lequel vous les avez enfermés ...« à Salis, 1799-09-15, https://constance-de-salm.de/archiv/#/document/8576 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-9-15</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10:31:39</t>
+          <t>08:15:36</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"J'ai reçu, ma chère élève, vos cheveux et le souvenir dans lequel vous les avez renfermés; ..." à Salis, 1799-09-15, https://constance-de-salm.de/archiv/#/document/5136 #onthisday</t>
+          <t>»J'ai reçu, ma chère élève, vos cheveux et le souvenir dans lequel vous les avez renfermés; ...« à Salis, 1799-09-15, https://constance-de-salm.de/archiv/#/document/5136 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-9-16</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12:00:34</t>
+          <t>15:54:32</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m'écrit, Monsieur, qu'il va m'envoyer une boîte ..." à Barbier, 1817-09-16, https://constance-de-salm.de/archiv/#/document/4386 #onthisday</t>
+          <t>»Monsieur Drais m'écrit, Monsieur, qu'il va m'envoyer une boîte ...« à Barbier, 1817-09-16, https://constance-de-salm.de/archiv/#/document/4386 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-9-17</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>14:11:05</t>
+          <t>08:17:03</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre ma chère amie, je n'ai pas besoin de vous exprimer les sensations dont elle m'agite ..." à Salis, 1800-09-17, https://constance-de-salm.de/archiv/#/document/5140 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre ma chère amie, je n'ai pas besoin de vous exprimer les sensations dont elle m'agite ...« à Salis, 1800-09-17, https://constance-de-salm.de/archiv/#/document/5140 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-9-17</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>13:23:02</t>
+          <t>19:18:56</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre lettre ma chère amie, je n'ai pas besoin de vous exprimer les sensations dont elle m'agite ..." à Salis, 1800-09-17, https://constance-de-salm.de/archiv/#/document/8598 #onthisday</t>
+          <t>»Je reçois à l'instant votre lettre ma chère amie, je n'ai pas besoin de vous exprimer les sensations dont elle m'agite ...« à Salis, 1800-09-17, https://constance-de-salm.de/archiv/#/document/8598 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-9-18</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:19:16</t>
+          <t>19:43:10</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Je vais enfin, Monsieur, faire le fameux voyage de Cologne ..." à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/4329 #onthisday</t>
+          <t>»Je vais enfin, Monsieur, faire le fameux voyage de Cologne ...« à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/4329 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-9-18</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>14:27:24</t>
+          <t>08:24:24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Seriez-vous assez bon, Monsieur, pour remettre à la chère Louise le morceau de gros de Naples ..." à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/8854 #onthisday</t>
+          <t>»Seriez-vous assez bon, Monsieur, pour remettre à la chère Louise le morceau de gros de Naples ...« à Prous, 1816-09-18, https://constance-de-salm.de/archiv/#/document/8854 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2024-9-19</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>09:42:47</t>
+          <t>09:54:10</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Je t’écris ce matin, ma chère Minette, parce que j’ai été interrompue ..." à Francq, 1814-09-19, https://constance-de-salm.de/archiv/#/document/6199 #onthisday</t>
+          <t>»Je t’écris ce matin, ma chère Minette, parce que j’ai été interrompue ...« à Francq, 1814-09-19, https://constance-de-salm.de/archiv/#/document/6199 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2024-9-20</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10:35:21</t>
+          <t>16:08:52</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Je vous dois mille remerciments, Monsieur, vous avez pris la peine de traduire une vieille histoire ..." à N.N., 1813-09-20, https://constance-de-salm.de/archiv/#/document/2308 #onthisday</t>
+          <t>»Je vous dois mille remerciments, Monsieur, vous avez pris la peine de traduire une vieille histoire ...« à N.N., 1813-09-20, https://constance-de-salm.de/archiv/#/document/2308 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2024-9-21</t>
+          <t>2024-09-21</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>19:37:31</t>
+          <t>13:40:50</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Monsieur Naigeon a dû vous envoyer une lettre que je vous ai écrite hier, Monsieur ..." à Barbier, 1817-09-21, https://constance-de-salm.de/archiv/#/document/4388 #onthisday</t>
+          <t>»Monsieur Naigeon a dû vous envoyer une lettre que je vous ai écrite hier, Monsieur ...« à Barbier, 1817-09-21, https://constance-de-salm.de/archiv/#/document/4388 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2024-9-22</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15:22:29</t>
+          <t>18:38:35</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"J’ai voulu vingt fois vous écrire depuis que j’ai reçu votre bonne lettre, chère amie; ..." à Vanhove, 1827-09-22, https://constance-de-salm.de/archiv/#/document/9089 #onthisday</t>
+          <t>»J’ai voulu vingt fois vous écrire depuis que j’ai reçu votre bonne lettre, chère amie; ...« à Vanhove, 1827-09-22, https://constance-de-salm.de/archiv/#/document/9089 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2024-9-22</t>
+          <t>2024-09-22</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11:33:30</t>
+          <t>19:24:04</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre ici, Monsieur, et je vous aurais répondu ..." à N.N., 1828-09-22, https://constance-de-salm.de/archiv/#/document/1964 #onthisday</t>
+          <t>»J'ai reçu votre lettre ici, Monsieur, et je vous aurais répondu ...« à N.N., 1828-09-22, https://constance-de-salm.de/archiv/#/document/1964 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2024-9-23</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>19:26:11</t>
+          <t>15:56:36</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai donné de mes nouvelles, Monsieur et ami ; ..." à Raboteau, 1812-09-23, https://constance-de-salm.de/archiv/#/document/2284 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai donné de mes nouvelles, Monsieur et ami ; ...« à Raboteau, 1812-09-23, https://constance-de-salm.de/archiv/#/document/2284 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2024-9-23</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16:43:51</t>
+          <t>16:47:14</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai donné de mes nouvelles, Monsieur et ami ; ..." à Raboteau, 1812-09-23, https://constance-de-salm.de/archiv/#/document/3907 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai donné de mes nouvelles, Monsieur et ami ; ...« à Raboteau, 1812-09-23, https://constance-de-salm.de/archiv/#/document/3907 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2024-9-24</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>12:22:06</t>
+          <t>12:16:13</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"J'apprends enfin par Monsieur Drais, Monsieur et ami, la cause des retards que vous avez ..." à Barbier, 1817-09-24, https://constance-de-salm.de/archiv/#/document/4389 #onthisday</t>
+          <t>»J'apprends enfin par Monsieur Drais, Monsieur et ami, la cause des retards que vous avez ...« à Barbier, 1817-09-24, https://constance-de-salm.de/archiv/#/document/4389 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2024-9-25</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>12:11:05</t>
+          <t>16:37:17</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre bonne et excellente lettre avec le plus sensible des plaisirs ..." à Thurot, 1823-09-25, https://constance-de-salm.de/archiv/#/document/76 #onthisday</t>
+          <t>»J'ai reçu votre bonne et excellente lettre avec le plus sensible des plaisirs ...« à Thurot, 1823-09-25, https://constance-de-salm.de/archiv/#/document/76 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2024-9-26</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10:01:43</t>
+          <t>09:23:20</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Madame, je sais à peine de quelles expressions me servir pour vous demander si la terrible nouvelle que je viens de lire dans un journal et qui annonce une perte cruelle ..." à Thurn und Taxis, 1825-09-26, https://constance-de-salm.de/archiv/#/document/236 #onthisday</t>
+          <t>»Madame, je sais à peine de quelles expressions me servir pour vous demander si la terrible nouvelle que je viens de lire dans un journal et qui annonce une perte cruelle ...« à Thurn und Taxis, 1825-09-26, https://constance-de-salm.de/archiv/#/document/236 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2024-9-27</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>13:45:31</t>
+          <t>18:21:08</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Je veux vous dire, Monsieur, combien je suis reconnaissante ..." à Mirault, 1831-09-27, https://constance-de-salm.de/archiv/#/document/6577 #onthisday</t>
+          <t>»Je veux vous dire, Monsieur, combien je suis reconnaissante ...« à Mirault, 1831-09-27, https://constance-de-salm.de/archiv/#/document/6577 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2024-9-28</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>10:47:17</t>
+          <t>13:13:25</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Non, vous n'êtes pas, Anténor, à la fin de votre carrière ..." à Lantier, 1818-09-28, https://constance-de-salm.de/archiv/#/document/4451 #onthisday</t>
+          <t>»Non, vous n'êtes pas, Anténor, à la fin de votre carrière ...« à Lantier, 1818-09-28, https://constance-de-salm.de/archiv/#/document/4451 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2024-9-29</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>09:43:46</t>
+          <t>08:21:39</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant votre lettre, Monsieur, et je m’empresse d’y répondre quelques mots ..." à Pailliet, 1824-09-29, https://constance-de-salm.de/archiv/#/document/11319 #onthisday</t>
+          <t>»Je reçois à l’instant votre lettre, Monsieur, et je m’empresse d’y répondre quelques mots ...« à Pailliet, 1824-09-29, https://constance-de-salm.de/archiv/#/document/11319 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2024-9-30</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16:45:27</t>
+          <t>16:34:26</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Je commence cette lettre, Monsieur et véritable ami, dans un petit château de mon mari ..." à Raboteau, 1816-09-30, https://constance-de-salm.de/archiv/#/document/3932 #onthisday</t>
+          <t>»Je commence cette lettre, Monsieur et véritable ami, dans un petit château de mon mari ...« à Raboteau, 1816-09-30, https://constance-de-salm.de/archiv/#/document/3932 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024-9-30</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15:42:23</t>
+          <t>14:44:10</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Je commence cette lettre, Monsieur et véritable ami, dans un petit château de mon mari ..." à Raboteau, 1816-09-30, https://constance-de-salm.de/archiv/#/document/4330 #onthisday</t>
+          <t>»Je commence cette lettre, Monsieur et véritable ami, dans un petit château de mon mari ...« à Raboteau, 1816-09-30, https://constance-de-salm.de/archiv/#/document/4330 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2024-10-1</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>13:34:24</t>
+          <t>08:14:14</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, mon rhume m’avait tout abatue [sic] ..." à Francq, 1815-10-01, https://constance-de-salm.de/archiv/#/document/6236 #onthisday</t>
+          <t>»Ma chère Minette, mon rhume m’avait tout abatue [sic] ...« à Francq, 1815-10-01, https://constance-de-salm.de/archiv/#/document/6236 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2024-10-2</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>12:09:19</t>
+          <t>15:07:01</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Je ne vous ai pas encore fait mon compliment, Madame, sur le futur mariage de Monsieur votre fils ..." à Vaulgrenand, 1830-10-02, https://constance-de-salm.de/archiv/#/document/5191 #onthisday</t>
+          <t>»Je ne vous ai pas encore fait mon compliment, Madame, sur le futur mariage de Monsieur votre fils ...« à Vaulgrenand, 1830-10-02, https://constance-de-salm.de/archiv/#/document/5191 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2024-10-3</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>19:00:14</t>
+          <t>17:06:44</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Je suis revenue au bercail, Monsieur, à travers des océans de boue ..." à Prous, 1816-10-03, https://constance-de-salm.de/archiv/#/document/2804 #onthisday</t>
+          <t>»Je suis revenue au bercail, Monsieur, à travers des océans de boue ...« à Prous, 1816-10-03, https://constance-de-salm.de/archiv/#/document/2804 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2024-10-4</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>13:45:01</t>
+          <t>19:43:12</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ..." à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/3980 #onthisday</t>
+          <t>»Savez-vous pourquoi je vous écris peu depuis longtemps, mon ancien ami ...« à Raboteau, 1819-10-04, https://constance-de-salm.de/archiv/#/document/3980 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2024-10-5</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>15:57:41</t>
+          <t>17:28:46</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"J’ai fait attendre votre messager, Monsieur, pour vous dire moi-même que le comte de Hompesch est ici ..." à Prous, 1816-10-05, https://constance-de-salm.de/archiv/#/document/10624 #onthisday</t>
+          <t>»J’ai fait attendre votre messager, Monsieur, pour vous dire moi-même que le comte de Hompesch est ici ...« à Prous, 1816-10-05, https://constance-de-salm.de/archiv/#/document/10624 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2024-10-5</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>11:47:07</t>
+          <t>14:29:14</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"J'ai fait attendre votre messager, Monsieur, pour vous dire ..." à Raboteau, 1816-10-05, https://constance-de-salm.de/archiv/#/document/4332 #onthisday</t>
+          <t>»J'ai fait attendre votre messager, Monsieur, pour vous dire ...« à Raboteau, 1816-10-05, https://constance-de-salm.de/archiv/#/document/4332 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2024-10-6</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>19:18:56</t>
+          <t>08:33:08</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"J'ai fait un voyage de 18 jours, Monsieur, depuis que j'ai reçu votre dernière lettre ..." à Barbier, 1816-10-06, https://constance-de-salm.de/archiv/#/document/4333 #onthisday</t>
+          <t>»J'ai fait un voyage de 18 jours, Monsieur, depuis que j'ai reçu votre dernière lettre ...« à Barbier, 1816-10-06, https://constance-de-salm.de/archiv/#/document/4333 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2024-10-7</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>12:54:35</t>
+          <t>15:07:56</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur, la lettre par laquelle vous m'annoncez que vous me ferez parvenir incessamment les six premières livraisons du „Pèlerin“ ..." à Bard, 1832-10-07, https://constance-de-salm.de/archiv/#/document/5431 #onthisday</t>
+          <t>»Je reçois, Monsieur, la lettre par laquelle vous m'annoncez que vous me ferez parvenir incessamment les six premières livraisons du „Pèlerin“ ...« à Bard, 1832-10-07, https://constance-de-salm.de/archiv/#/document/5431 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2024-10-8</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>09:21:12</t>
+          <t>10:23:08</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Que je vous dise un mot, Monsieur et ami, pour vous tranquilliser au moins sur ma santé qui est passable ..." à Raboteau, 1810-10-08, https://constance-de-salm.de/archiv/#/document/2168 #onthisday</t>
+          <t>»Que je vous dise un mot, Monsieur et ami, pour vous tranquilliser au moins sur ma santé qui est passable ...« à Raboteau, 1810-10-08, https://constance-de-salm.de/archiv/#/document/2168 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2024-10-8</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10:24:37</t>
+          <t>15:53:52</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Que je vous dise un mot, Monsieur et ami, pour vous tranquilliser au moins sur ma santé qui est passable ..." à Raboteau, 1810-10-08, https://constance-de-salm.de/archiv/#/document/3893 #onthisday</t>
+          <t>»Que je vous dise un mot, Monsieur et ami, pour vous tranquilliser au moins sur ma santé qui est passable ...« à Raboteau, 1810-10-08, https://constance-de-salm.de/archiv/#/document/3893 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2024-10-9</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>08:46:41</t>
+          <t>09:32:07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Je ne veux pourtant pas, Monsieur et ami ..." à Barbier, 1821-10-09, https://constance-de-salm.de/archiv/#/document/8298 #onthisday</t>
+          <t>»Je ne veux pourtant pas, Monsieur et ami ...« à Barbier, 1821-10-09, https://constance-de-salm.de/archiv/#/document/8298 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4275,12 +4275,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10:40:11</t>
+          <t>15:44:51</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire assez, Monsieur, combien je suis reconnaissante de tous les souvenirs que vous me rendez ..." à Boucharlat, 1828-10-10, https://constance-de-salm.de/archiv/#/document/9237 #onthisday</t>
+          <t>»Je ne puis vous dire assez, Monsieur, combien je suis reconnaissante de tous les souvenirs que vous me rendez ...« à Boucharlat, 1828-10-10, https://constance-de-salm.de/archiv/#/document/9237 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4302,12 +4302,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>11:18:31</t>
+          <t>09:58:33</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"J'arriverai mercredi à Aix, Monsieur, et je veux vous l'annoncer moi-même ..." à Gay, 1822-10-11, https://constance-de-salm.de/archiv/#/document/37 #onthisday</t>
+          <t>»J'arriverai mercredi à Aix, Monsieur, et je veux vous l'annoncer moi-même ...« à Gay, 1822-10-11, https://constance-de-salm.de/archiv/#/document/37 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>12:31:42</t>
+          <t>17:32:04</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"Je pars, je vais revoir les rives de la Seine / Ces beaux lieux où chacun peut vivre satisfait / Ces beaux lieux où, du moins, le bonheur et la peine / ..." à Raboteau, 1809-10-12, https://constance-de-salm.de/archiv/#/document/2135 #onthisday</t>
+          <t>»Je pars, je vais revoir les rives de la Seine / Ces beaux lieux où chacun peut vivre satisfait / Ces beaux lieux où, du moins, le bonheur et la peine / ...« à Raboteau, 1809-10-12, https://constance-de-salm.de/archiv/#/document/2135 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>09:39:04</t>
+          <t>11:54:26</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"Je pars, je vais revoir les rives de la Seine / Ces beaux lieux où chacun peut vivre satisfait / Ces beaux lieux où, du moins, le bonheur et la peine / ..." à Raboteau, 1809-10-12, https://constance-de-salm.de/archiv/#/document/3884 #onthisday</t>
+          <t>»Je pars, je vais revoir les rives de la Seine / Ces beaux lieux où chacun peut vivre satisfait / Ces beaux lieux où, du moins, le bonheur et la peine / ...« à Raboteau, 1809-10-12, https://constance-de-salm.de/archiv/#/document/3884 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15:04:31</t>
+          <t>14:01:34</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"Me voilà ici depuis dix à douze jours, Monsieur et ami ..." à Raboteau, 1818-10-13, https://constance-de-salm.de/archiv/#/document/3978 #onthisday</t>
+          <t>»Me voilà ici depuis dix à douze jours, Monsieur et ami ...« à Raboteau, 1818-10-13, https://constance-de-salm.de/archiv/#/document/3978 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>11:09:25</t>
+          <t>16:45:53</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"Me voilà ici depuis dix à douze jours, Monsieur et ami ..." à Raboteau, 1818-10-13, https://constance-de-salm.de/archiv/#/document/4454 #onthisday</t>
+          <t>»Me voilà ici depuis dix à douze jours, Monsieur et ami ...« à Raboteau, 1818-10-13, https://constance-de-salm.de/archiv/#/document/4454 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16:21:57</t>
+          <t>15:03:25</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Une assez longue indisposition, Mademoiselle, m’a privée jusqu’à présent du plaisir de répondre ..." à Salis, 1798-10-14, https://constance-de-salm.de/archiv/#/document/8542 #onthisday</t>
+          <t>»Une assez longue indisposition, Mademoiselle, m’a privée jusqu’à présent du plaisir de répondre ...« à Salis, 1798-10-14, https://constance-de-salm.de/archiv/#/document/8542 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>13:22:02</t>
+          <t>13:35:47</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"Une assez longue indisposition, Mademoiselle, m’a privée jusqu’à présent du plaisir de répondre ..." à Salis, 1798-10-14, https://constance-de-salm.de/archiv/#/document/10389 #onthisday</t>
+          <t>»Une assez longue indisposition, Mademoiselle, m’a privée jusqu’à présent du plaisir de répondre ...« à Salis, 1798-10-14, https://constance-de-salm.de/archiv/#/document/10389 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4491,12 +4491,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>19:52:48</t>
+          <t>19:51:19</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Je quitte enfin la campagne, Monsieur et ami, je pars demain pour Aix ..." à Barbier, 1822-10-15, https://constance-de-salm.de/archiv/#/document/38 #onthisday</t>
+          <t>»Je quitte enfin la campagne, Monsieur et ami, je pars demain pour Aix ...« à Barbier, 1822-10-15, https://constance-de-salm.de/archiv/#/document/38 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16:09:35</t>
+          <t>18:20:55</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Je suis fort flattée, Monsieur le maire, de la lettre ..." à La Suze, 1823-10-15, https://constance-de-salm.de/archiv/#/document/77 #onthisday</t>
+          <t>»Je suis fort flattée, Monsieur le maire, de la lettre ...« à La Suze, 1823-10-15, https://constance-de-salm.de/archiv/#/document/77 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4545,12 +4545,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>17:09:42</t>
+          <t>13:30:28</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Voilà bien longtems que je ne vous ai écrit, Monsieur et ami ; ..." à Raboteau, 1811-10-16, https://constance-de-salm.de/archiv/#/document/3901 #onthisday</t>
+          <t>»Voilà bien longtems que je ne vous ai écrit, Monsieur et ami ; ...« à Raboteau, 1811-10-16, https://constance-de-salm.de/archiv/#/document/3901 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>14:40:28</t>
+          <t>18:41:34</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Je n’ai pu vous écrire plus tôt, Monsieur et ami, ayant eu une grande quantité de visites ..." à Raboteau, 1813-10-16, https://constance-de-salm.de/archiv/#/document/2311 #onthisday</t>
+          <t>»Je n’ai pu vous écrire plus tôt, Monsieur et ami, ayant eu une grande quantité de visites ...« à Raboteau, 1813-10-16, https://constance-de-salm.de/archiv/#/document/2311 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>12:10:36</t>
+          <t>12:57:25</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"J'ai lu, Monsieur, avec le plus vif intérêt l'agréable traduction ..." à Fallenstein, 1823-10-17, https://constance-de-salm.de/archiv/#/document/78 #onthisday</t>
+          <t>»J'ai lu, Monsieur, avec le plus vif intérêt l'agréable traduction ...« à Fallenstein, 1823-10-17, https://constance-de-salm.de/archiv/#/document/78 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>18:37:05</t>
+          <t>09:27:37</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Je veux joindre ce billet à un paquet que j’envois [sic] à Drais, cher frère, pour te prier ..." à Théis, 1826-10-17, https://constance-de-salm.de/archiv/#/document/10679 #onthisday</t>
+          <t>»Je veux joindre ce billet à un paquet que j’envois [sic] à Drais, cher frère, pour te prier ...« à Théis, 1826-10-17, https://constance-de-salm.de/archiv/#/document/10679 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10:43:01</t>
+          <t>18:55:18</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Je vais retourner à Paris dans 15 jours, Monsieur ..." à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/1790 #onthisday</t>
+          <t>»Je vais retourner à Paris dans 15 jours, Monsieur ...« à Raboteau, 1805-10-18, https://constance-de-salm.de/archiv/#/document/1790 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>15:26:25</t>
+          <t>19:52:46</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"J'ai reçu ces jours-ci votre numéro 14, Monsieur, j'avais reçu aussi exactement votre numéro 13 ..." à Jullien de Paris, 1832-10-19, https://constance-de-salm.de/archiv/#/document/5436 #onthisday</t>
+          <t>»J'ai reçu ces jours-ci votre numéro 14, Monsieur, j'avais reçu aussi exactement votre numéro 13 ...« à Jullien de Paris, 1832-10-19, https://constance-de-salm.de/archiv/#/document/5436 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10:00:57</t>
+          <t>18:05:40</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Que de tems écoulé depuis que je ne vous ai écrit, chère Princesse ..." à Thurn und Taxis, 1820-10-20, https://constance-de-salm.de/archiv/#/document/3010 #onthisday</t>
+          <t>»Que de tems écoulé depuis que je ne vous ai écrit, chère Princesse ...« à Thurn und Taxis, 1820-10-20, https://constance-de-salm.de/archiv/#/document/3010 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4734,12 +4734,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>18:38:18</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Voilà plus de six mois, Monsieur, que je vous dois une réponse et un remerciment [sic], et j’en suis si confuse que je ne sais par où commencer ..." à Pougens, 1827-10-20, https://constance-de-salm.de/archiv/#/document/9095 #onthisday</t>
+          <t>»Voilà plus de six mois, Monsieur, que je vous dois une réponse et un remerciment [sic], et j’en suis si confuse que je ne sais par où commencer ...« à Pougens, 1827-10-20, https://constance-de-salm.de/archiv/#/document/9095 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:37:55</t>
+          <t>19:26:40</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelques jours, ma chère amie, votre dernière lettre, j'ai d'abord été effrayée de l'état de Madame votre mère ..." à Salis, 1800-10-21, https://constance-de-salm.de/archiv/#/document/5141 #onthisday</t>
+          <t>»J'ai reçu il y a quelques jours, ma chère amie, votre dernière lettre, j'ai d'abord été effrayée de l'état de Madame votre mère ...« à Salis, 1800-10-21, https://constance-de-salm.de/archiv/#/document/5141 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>17:33:38</t>
+          <t>08:33:40</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Lisez, mon cher Duval, la lettre ci-jointe dont l’adresse est chargée de tout ce qui prouve qu’elle a couru le monde ..." à Duval, 1827-10-22, https://constance-de-salm.de/archiv/#/document/10324 #onthisday</t>
+          <t>»Lisez, mon cher Duval, la lettre ci-jointe dont l’adresse est chargée de tout ce qui prouve qu’elle a couru le monde ...« à Duval, 1827-10-22, https://constance-de-salm.de/archiv/#/document/10324 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>18:20:21</t>
+          <t>09:20:04</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Lisez, mon cher Duval, la lettre ci-jointe dont l’adresse est chargée de tout ce qui prouve qu’elle a couru le monde ..." à Duval, 1827-10-22, https://constance-de-salm.de/archiv/#/document/9096 #onthisday</t>
+          <t>»Lisez, mon cher Duval, la lettre ci-jointe dont l’adresse est chargée de tout ce qui prouve qu’elle a couru le monde ...« à Duval, 1827-10-22, https://constance-de-salm.de/archiv/#/document/9096 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>12:10:07</t>
+          <t>14:52:09</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"Air „J‘ai perdu mon âne“ ..." à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/1814 #onthisday</t>
+          <t>»Air „J‘ai perdu mon âne“ ...« à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/1814 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>14:32:34</t>
+          <t>16:01:33</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"Air „J‘ai perdu mon âne“ ..." à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/3881 #onthisday</t>
+          <t>»Air „J‘ai perdu mon âne“ ...« à Raboteau, 1806-10-23, https://constance-de-salm.de/archiv/#/document/3881 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>17:46:07</t>
+          <t>15:20:08</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"Un événement inattendu et que je vous conterai au coin du feu sous le secret, Monsieur et ami, vient de rompre, pour notre bonheur, l’espèce d’engagement que nous avions pris ici ..." à Raboteau, 1812-10-24, https://constance-de-salm.de/archiv/#/document/2283 #onthisday</t>
+          <t>»Un événement inattendu et que je vous conterai au coin du feu sous le secret, Monsieur et ami, vient de rompre, pour notre bonheur, l’espèce d’engagement que nous avions pris ici ...« à Raboteau, 1812-10-24, https://constance-de-salm.de/archiv/#/document/2283 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>11:40:43</t>
+          <t>17:43:02</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Depuis quelques jours, mon cher Lemontey, j’éprouve une indignation presque continuelle ..." à Lémontey, 1813-10-25, https://constance-de-salm.de/archiv/#/document/2313 #onthisday</t>
+          <t>»Depuis quelques jours, mon cher Lemontey, j’éprouve une indignation presque continuelle ...« à Lémontey, 1813-10-25, https://constance-de-salm.de/archiv/#/document/2313 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>15:20:25</t>
+          <t>13:25:51</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"Monsieur Drais va m'envoyer une nouvelle caisse, veuillez y mettre, je vous prie ..." à Barbier, 1819-10-25, https://constance-de-salm.de/archiv/#/document/4486 #onthisday</t>
+          <t>»Monsieur Drais va m'envoyer une nouvelle caisse, veuillez y mettre, je vous prie ...« à Barbier, 1819-10-25, https://constance-de-salm.de/archiv/#/document/4486 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>15:30:30</t>
+          <t>12:08:13</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"Pardonnez mon long silence, mon ancien ami ..." à Mentelle, 1815-10-26, https://constance-de-salm.de/archiv/#/document/3293 #onthisday</t>
+          <t>»Pardonnez mon long silence, mon ancien ami ...« à Mentelle, 1815-10-26, https://constance-de-salm.de/archiv/#/document/3293 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>12:44:01</t>
+          <t>13:06:57</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Pardonnez mon long silence, mon ancien ami ..." à Mentelle, 1815-10-26, https://constance-de-salm.de/archiv/#/document/4277 #onthisday</t>
+          <t>»Pardonnez mon long silence, mon ancien ami ...« à Mentelle, 1815-10-26, https://constance-de-salm.de/archiv/#/document/4277 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>19:01:42</t>
+          <t>14:07:55</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer moi-même, mon cher voisin ..." à Langlès, 1806-10-27, https://constance-de-salm.de/archiv/#/document/2066 #onthisday</t>
+          <t>»Je veux vous annoncer moi-même, mon cher voisin ...« à Langlès, 1806-10-27, https://constance-de-salm.de/archiv/#/document/2066 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5058,12 +5058,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>18:10:37</t>
+          <t>14:40:33</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"Enfin, ma chère Minette, te voilà heureusement délivrée : j’en suis presqu’aussi soulagée que toi ..." à Francq, 1815-10-27, https://constance-de-salm.de/archiv/#/document/6257 #onthisday</t>
+          <t>»Enfin, ma chère Minette, te voilà heureusement délivrée : j’en suis presqu’aussi soulagée que toi ...« à Francq, 1815-10-27, https://constance-de-salm.de/archiv/#/document/6257 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16:13:26</t>
+          <t>16:13:50</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Permettez, mon ancien ami, que je n'écrive pas cette lettre toute entière de ma main ..." à Ponce, 1822-10-28, https://constance-de-salm.de/archiv/#/document/39 #onthisday</t>
+          <t>»Permettez, mon ancien ami, que je n'écrive pas cette lettre toute entière de ma main ...« à Ponce, 1822-10-28, https://constance-de-salm.de/archiv/#/document/39 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>18:29:01</t>
+          <t>19:58:23</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur et ami, si vous croyez que je vous ai oublié; mais vous auriez bien tort ..." à Raboteau, 1815-10-29, https://constance-de-salm.de/archiv/#/document/4278 #onthisday</t>
+          <t>»Je ne sais, Monsieur et ami, si vous croyez que je vous ai oublié; mais vous auriez bien tort ...« à Raboteau, 1815-10-29, https://constance-de-salm.de/archiv/#/document/4278 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5139,12 +5139,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08:28:12</t>
+          <t>17:19:03</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur et ami, si vous croyés que je vous ai oublié : mais vous aviés grand tort ..." à Raboteau, 1815-10-29, https://constance-de-salm.de/archiv/#/document/3923 #onthisday</t>
+          <t>»Je ne sais, Monsieur et ami, si vous croyés que je vous ai oublié : mais vous aviés grand tort ...« à Raboteau, 1815-10-29, https://constance-de-salm.de/archiv/#/document/3923 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16:39:09</t>
+          <t>08:02:19</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Enfin, mon cher voisin, je pars le 15 du mois prochain: ..." à Raboteau, 1810-10-30, https://constance-de-salm.de/archiv/#/document/2171 #onthisday</t>
+          <t>»Enfin, mon cher voisin, je pars le 15 du mois prochain: ...« à Raboteau, 1810-10-30, https://constance-de-salm.de/archiv/#/document/2171 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5193,12 +5193,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>09:04:01</t>
+          <t>14:15:32</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"Enfin, mon cher voisin, je pars le 15 du mois prochain: ..." à Raboteau, 1810-10-30, https://constance-de-salm.de/archiv/#/document/3894 #onthisday</t>
+          <t>»Enfin, mon cher voisin, je pars le 15 du mois prochain: ...« à Raboteau, 1810-10-30, https://constance-de-salm.de/archiv/#/document/3894 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5220,12 +5220,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16:41:10</t>
+          <t>08:14:58</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre réponse, Monsieur et ami, et je m’empresse de vous récrire ..." à Barbier, 1820-10-31, https://constance-de-salm.de/archiv/#/document/4648 #onthisday</t>
+          <t>»J’ai reçu hier votre réponse, Monsieur et ami, et je m’empresse de vous récrire ...« à Barbier, 1820-10-31, https://constance-de-salm.de/archiv/#/document/4648 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2024-11-1</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:54:20</t>
+          <t>17:57:48</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"J’ai reçu, cher frère, tes deux lettres, et j’attendais pour répondre à la première ..." à Théis, 1825-11-01, https://constance-de-salm.de/archiv/#/document/10634 #onthisday</t>
+          <t>»J’ai reçu, cher frère, tes deux lettres, et j’attendais pour répondre à la première ...« à Théis, 1825-11-01, https://constance-de-salm.de/archiv/#/document/10634 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5269,17 +5269,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2024-11-2</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>18:56:42</t>
+          <t>18:13:55</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"Je ne t’écrirai qu’un mot aujourd’hui, ma chère Minette, car je ne veux pas fatiguer mon oreille ..." à Francq, 1815-11-02, https://constance-de-salm.de/archiv/#/document/6245 #onthisday</t>
+          <t>»Je ne t’écrirai qu’un mot aujourd’hui, ma chère Minette, car je ne veux pas fatiguer mon oreille ...« à Francq, 1815-11-02, https://constance-de-salm.de/archiv/#/document/6245 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5296,17 +5296,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2024-11-3</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:24:05</t>
+          <t>13:58:09</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"J’ai envie de vous faire une grande querelle, Monsieur le Baron; je n’entends plus parler de vous ..." à Ladoucette, 1825-11-03, https://constance-de-salm.de/archiv/#/document/8970 #onthisday</t>
+          <t>»J’ai envie de vous faire une grande querelle, Monsieur le Baron; je n’entends plus parler de vous ...« à Ladoucette, 1825-11-03, https://constance-de-salm.de/archiv/#/document/8970 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5323,17 +5323,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2024-11-4</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>14:02:54</t>
+          <t>13:55:39</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"Mille remerciments de votre écritoire, mon cher voisin ..." à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/8299 #onthisday</t>
+          <t>»Mille remerciments de votre écritoire, mon cher voisin ...« à Prous, 1821-11-04, https://constance-de-salm.de/archiv/#/document/8299 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5350,17 +5350,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2024-11-5</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>11:14:12</t>
+          <t>10:13:18</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Depuis plus d'un mois, Monsieur, nous nous proposons chaque jour d'aller vous voir, ainsi que Madame ..." à Pröpper, 1832-11-05, https://constance-de-salm.de/archiv/#/document/5437 #onthisday</t>
+          <t>»Depuis plus d'un mois, Monsieur, nous nous proposons chaque jour d'aller vous voir, ainsi que Madame ...« à Pröpper, 1832-11-05, https://constance-de-salm.de/archiv/#/document/5437 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5377,17 +5377,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2024-11-6</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>15:08:50</t>
+          <t>16:28:47</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre à l’instant même, ma bien chère voisine, et comme je suis sûre ..." à Hompesch, 1832-11-06, https://constance-de-salm.de/archiv/#/document/9519 #onthisday</t>
+          <t>»Je reçois votre lettre à l’instant même, ma bien chère voisine, et comme je suis sûre ...« à Hompesch, 1832-11-06, https://constance-de-salm.de/archiv/#/document/9519 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2024-11-7</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>18:19:49</t>
+          <t>13:26:48</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"C'est aujourd'hui mon jour de naissance, Monsieur, je me donne congé ..." à Boucharlat, 1831-11-07, https://constance-de-salm.de/archiv/#/document/6629 #onthisday</t>
+          <t>»C'est aujourd'hui mon jour de naissance, Monsieur, je me donne congé ...« à Boucharlat, 1831-11-07, https://constance-de-salm.de/archiv/#/document/6629 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2024-11-8</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18:33:05</t>
+          <t>12:49:03</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"Que dites-vous, Monsieur et ami, de l‘infamie de Mademoiselle Raoul ..." à Raboteau, 1813-11-08, https://constance-de-salm.de/archiv/#/document/2317 #onthisday</t>
+          <t>»Que dites-vous, Monsieur et ami, de l‘infamie de Mademoiselle Raoul ...« à Raboteau, 1813-11-08, https://constance-de-salm.de/archiv/#/document/2317 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5458,17 +5458,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2024-11-8</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>19:55:49</t>
+          <t>17:17:11</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"Que dites-vous, Monsieur et ami, de l‘infamie de Mademoiselle Raoul ..." à Raboteau, 1813-11-08, https://constance-de-salm.de/archiv/#/document/3915 #onthisday</t>
+          <t>»Que dites-vous, Monsieur et ami, de l‘infamie de Mademoiselle Raoul ...« à Raboteau, 1813-11-08, https://constance-de-salm.de/archiv/#/document/3915 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5485,17 +5485,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2024-11-9</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>17:31:58</t>
+          <t>12:00:38</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que nous n’avons entendu parler l’un de l’autre, et j’oserais à peine ..." à Pailliet, 1841-11-09, https://constance-de-salm.de/archiv/#/document/11374 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que nous n’avons entendu parler l’un de l’autre, et j’oserais à peine ...« à Pailliet, 1841-11-09, https://constance-de-salm.de/archiv/#/document/11374 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>09:26:49</t>
+          <t>17:03:56</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"J’ai voulu bien souvent prendre la plume pour vous écrire, ma chère amie, mais mille circonstances ..." à Salis, 1800-11-10, https://constance-de-salm.de/archiv/#/document/8600 #onthisday</t>
+          <t>»J’ai voulu bien souvent prendre la plume pour vous écrire, ma chère amie, mais mille circonstances ...« à Salis, 1800-11-10, https://constance-de-salm.de/archiv/#/document/8600 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>15:24:15</t>
+          <t>19:08:34</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"J’ai voulu bien souvent prendre la plume pour vous écrire, ma chère amie, mais mille circonstances ..." à Salis, 1800-11-10, https://constance-de-salm.de/archiv/#/document/10424 #onthisday</t>
+          <t>»J’ai voulu bien souvent prendre la plume pour vous écrire, ma chère amie, mais mille circonstances ...« à Salis, 1800-11-10, https://constance-de-salm.de/archiv/#/document/10424 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:20:58</t>
+          <t>11:12:47</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"Je me dispose à partir pour Aix, Monsieur le baron, mais je ne veux pas quitter ma solitude ..." à Ladoucette, 1833-11-11, https://constance-de-salm.de/archiv/#/document/5293 #onthisday</t>
+          <t>»Je me dispose à partir pour Aix, Monsieur le baron, mais je ne veux pas quitter ma solitude ...« à Ladoucette, 1833-11-11, https://constance-de-salm.de/archiv/#/document/5293 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16:14:39</t>
+          <t>17:17:55</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"Madame de Locquenghien, ci-devant baronne peu fortunée et mère de 9 enfants, dont plusieurs sont encore à sa charge ..." à Beugnot, 1808-11-12, https://constance-de-salm.de/archiv/#/document/2111 #onthisday</t>
+          <t>»Madame de Locquenghien, ci-devant baronne peu fortunée et mère de 9 enfants, dont plusieurs sont encore à sa charge ...« à Beugnot, 1808-11-12, https://constance-de-salm.de/archiv/#/document/2111 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>18:42:40</t>
+          <t>19:42:28</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Madame de Locquenghien, ci-devant baronne peu fortunée et mère de 9 enfants, dont plusieurs sont encore à sa charge ..." à Beugnot, 1808-11-12, https://constance-de-salm.de/archiv/#/document/8731 #onthisday</t>
+          <t>»Madame de Locquenghien, ci-devant baronne peu fortunée et mère de 9 enfants, dont plusieurs sont encore à sa charge ...« à Beugnot, 1808-11-12, https://constance-de-salm.de/archiv/#/document/8731 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10:15:34</t>
+          <t>16:06:06</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"Je me hâte de vous dire, Monsieur, que me voilà à Aix-la-Chapelle et que je viens d’y recevoir la dernière lettre que vous m’avez écrite ..." à Marron, 1827-11-13, https://constance-de-salm.de/archiv/#/document/9100 #onthisday</t>
+          <t>»Je me hâte de vous dire, Monsieur, que me voilà à Aix-la-Chapelle et que je viens d’y recevoir la dernière lettre que vous m’avez écrite ...« à Marron, 1827-11-13, https://constance-de-salm.de/archiv/#/document/9100 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>13:31:52</t>
+          <t>11:16:44</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"Une chute dangereuse que j'ai faite il y a quelques temps m'a empêchée jusqu'à présent, chère Princesse, de répondre à votre si douloureuse lettre ..." à Thurn und Taxis, 1825-11-14, https://constance-de-salm.de/archiv/#/document/237 #onthisday</t>
+          <t>»Une chute dangereuse que j'ai faite il y a quelques temps m'a empêchée jusqu'à présent, chère Princesse, de répondre à votre si douloureuse lettre ...« à Thurn und Taxis, 1825-11-14, https://constance-de-salm.de/archiv/#/document/237 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>14:14:55</t>
+          <t>08:25:45</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"Air: Charmante Gabrielle, D’une offre trop aimable / J’accepte la moitié / Je veux à votre table / célébrer l’amitié ..." à Ladoucette, 1810-11-15, https://constance-de-salm.de/archiv/#/document/2176 #onthisday</t>
+          <t>»Air: Charmante Gabrielle, D’une offre trop aimable / J’accepte la moitié / Je veux à votre table / célébrer l’amitié ...« à Ladoucette, 1810-11-15, https://constance-de-salm.de/archiv/#/document/2176 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>11:30:05</t>
+          <t>14:08:53</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps que je ne vous ai écrit, Monsieur et ami; mais le voyage de l’Empereur ..." à Raboteau, 1811-11-16, https://constance-de-salm.de/archiv/#/document/2236 #onthisday</t>
+          <t>»Voilà bien longtemps que je ne vous ai écrit, Monsieur et ami; mais le voyage de l’Empereur ...« à Raboteau, 1811-11-16, https://constance-de-salm.de/archiv/#/document/2236 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>09:16:34</t>
+          <t>15:47:41</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Ah, que le souvenir est une douce chose! ..." à Thurn und Taxis, 1818-11-16, https://constance-de-salm.de/archiv/#/document/4458 #onthisday</t>
+          <t>»Ah, que le souvenir est une douce chose! ...« à Thurn und Taxis, 1818-11-16, https://constance-de-salm.de/archiv/#/document/4458 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>12:06:52</t>
+          <t>09:04:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, votre dernière lettre avec la copie du jugement ..." à Pailliet, 1825-11-17, https://constance-de-salm.de/archiv/#/document/11347 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, votre dernière lettre avec la copie du jugement ...« à Pailliet, 1825-11-17, https://constance-de-salm.de/archiv/#/document/11347 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>15:35:19</t>
+          <t>12:20:34</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"Je vois avec plaisir, cher frère, que les circonstances font ce que ma raison, et mon amitié ..." à Théis, 1825-11-17, https://constance-de-salm.de/archiv/#/document/10640 #onthisday</t>
+          <t>»Je vois avec plaisir, cher frère, que les circonstances font ce que ma raison, et mon amitié ...« à Théis, 1825-11-17, https://constance-de-salm.de/archiv/#/document/10640 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>11:24:08</t>
+          <t>16:51:50</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"Je n’ai le temps que de t‘écrire un mot encore aujourd’hui, ma chère Minette ..." à Francq, 1815-11-18, https://constance-de-salm.de/archiv/#/document/6248 #onthisday</t>
+          <t>»Je n’ai le temps que de t‘écrire un mot encore aujourd’hui, ma chère Minette ...« à Francq, 1815-11-18, https://constance-de-salm.de/archiv/#/document/6248 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5868,12 +5868,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>08:07:18</t>
+          <t>19:40:53</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"J’ai reçu, hier, ta petite lettre du - [leer] où tu me parlais de la démarche de Monsieur Drais ..." à Francq, 1815-11-19, https://constance-de-salm.de/archiv/#/document/6249 #onthisday</t>
+          <t>»J’ai reçu, hier, ta petite lettre du - [leer] où tu me parlais de la démarche de Monsieur Drais ...« à Francq, 1815-11-19, https://constance-de-salm.de/archiv/#/document/6249 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5895,12 +5895,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16:23:06</t>
+          <t>11:36:56</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelque temps, Monsieur, et je me propose de partir pour Paris ..." à Simon(s), 1829-11-19, https://constance-de-salm.de/archiv/#/document/9468 #onthisday</t>
+          <t>»Je suis ici depuis quelque temps, Monsieur, et je me propose de partir pour Paris ...« à Simon(s), 1829-11-19, https://constance-de-salm.de/archiv/#/document/9468 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5922,12 +5922,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>17:17:28</t>
+          <t>09:35:34</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"Sire, nuit et jour occupé du bonheur de la Terre ..." à Alexander I., 1818-11-20, https://constance-de-salm.de/archiv/#/document/8857 #onthisday</t>
+          <t>»Sire, nuit et jour occupé du bonheur de la Terre ...« à Alexander I., 1818-11-20, https://constance-de-salm.de/archiv/#/document/8857 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>17:37:35</t>
+          <t>08:56:50</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Mon homme d'affaires de Paris m'écrit, Monsieur, qu'au retour d'un voyage ..." à Sanson de Pongerville, 1831-11-21, https://constance-de-salm.de/archiv/#/document/6634 #onthisday</t>
+          <t>»Mon homme d'affaires de Paris m'écrit, Monsieur, qu'au retour d'un voyage ...« à Sanson de Pongerville, 1831-11-21, https://constance-de-salm.de/archiv/#/document/6634 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>19:46:55</t>
+          <t>18:13:09</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Nous voici enfin de retour, Monsieur, grâce au jury ..." à Prous, 1816-11-22, https://constance-de-salm.de/archiv/#/document/2806 #onthisday</t>
+          <t>»Nous voici enfin de retour, Monsieur, grâce au jury ...« à Prous, 1816-11-22, https://constance-de-salm.de/archiv/#/document/2806 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>18:33:54</t>
+          <t>15:18:28</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre dernière lettre, Monsieur et ami ..." à Barbier, 1823-11-23, https://constance-de-salm.de/archiv/#/document/81 #onthisday</t>
+          <t>»Je reçois à l'instant votre dernière lettre, Monsieur et ami ...« à Barbier, 1823-11-23, https://constance-de-salm.de/archiv/#/document/81 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>13:52:03</t>
+          <t>10:10:22</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"Je suis si confuse, Monsieur le baron, de n’avoir pas signé ma dernière lettre que je me hâte de commencer ..." à Ladoucette, 1828-11-23, https://constance-de-salm.de/archiv/#/document/9279 #onthisday</t>
+          <t>»Je suis si confuse, Monsieur le baron, de n’avoir pas signé ma dernière lettre que je me hâte de commencer ...« à Ladoucette, 1828-11-23, https://constance-de-salm.de/archiv/#/document/9279 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16:05:05</t>
+          <t>17:23:07</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et véritable ami, le terrible récit que je vous ai promis, pour l'ouvrage de Monsieur Lesur ..." à Barbier, 1820-11-24, https://constance-de-salm.de/archiv/#/document/4649 #onthisday</t>
+          <t>»Voici, Monsieur et véritable ami, le terrible récit que je vous ai promis, pour l'ouvrage de Monsieur Lesur ...« à Barbier, 1820-11-24, https://constance-de-salm.de/archiv/#/document/4649 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:21:45</t>
+          <t>17:07:54</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, j’ai reçu ta dernière renfermant des cheveux de Constant qui sont fort jolis ..." à Francq, 1815-11-25, https://constance-de-salm.de/archiv/#/document/6255 #onthisday</t>
+          <t>»Ma chère Minette, j’ai reçu ta dernière renfermant des cheveux de Constant qui sont fort jolis ...« à Francq, 1815-11-25, https://constance-de-salm.de/archiv/#/document/6255 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15:04:43</t>
+          <t>11:23:55</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre du 21, Monsieur, et je m'empresse d'y répondre ..." à Barbier, 1817-11-26, https://constance-de-salm.de/archiv/#/document/4401 #onthisday</t>
+          <t>»J'ai reçu votre lettre du 21, Monsieur, et je m'empresse d'y répondre ...« à Barbier, 1817-11-26, https://constance-de-salm.de/archiv/#/document/4401 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:03:51</t>
+          <t>13:52:12</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"Je n’ai lu que ces jours-ci, Monsieur, le très aimable article que vous avez fait sur mes „Vingt-quatre heures“ ..." à Tissot, 1824-11-27, https://constance-de-salm.de/archiv/#/document/8927 #onthisday</t>
+          <t>»Je n’ai lu que ces jours-ci, Monsieur, le très aimable article que vous avez fait sur mes „Vingt-quatre heures“ ...« à Tissot, 1824-11-27, https://constance-de-salm.de/archiv/#/document/8927 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6165,12 +6165,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>10:28:26</t>
+          <t>11:40:01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"On m’assure que Monsieur le Baron de Ladoucette est de retour à Paris ..." à Ladoucette, 1824-11-27, https://constance-de-salm.de/archiv/#/document/8926 #onthisday</t>
+          <t>»On m’assure que Monsieur le Baron de Ladoucette est de retour à Paris ...« à Ladoucette, 1824-11-27, https://constance-de-salm.de/archiv/#/document/8926 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>18:48:44</t>
+          <t>15:48:13</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"Je suis depuis deux mois à Paris, mon ancienne amie, et j’espérais toujours y avoir de vos nouvelles ..." à Salis, 1824-11-28, https://constance-de-salm.de/archiv/#/document/8928 #onthisday</t>
+          <t>»Je suis depuis deux mois à Paris, mon ancienne amie, et j’espérais toujours y avoir de vos nouvelles ...« à Salis, 1824-11-28, https://constance-de-salm.de/archiv/#/document/8928 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6219,12 +6219,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>08:27:50</t>
+          <t>11:24:04</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"J'ai laissé passer les premiers moments de votre triomphe, mon ancien ami ..." à Girodet-Trioson, 1819-11-29, https://constance-de-salm.de/archiv/#/document/4489 #onthisday</t>
+          <t>»J'ai laissé passer les premiers moments de votre triomphe, mon ancien ami ...« à Girodet-Trioson, 1819-11-29, https://constance-de-salm.de/archiv/#/document/4489 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6246,12 +6246,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>08:33:07</t>
+          <t>11:16:55</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"J'ai mal à la tête, aux pieds, au dos, au côté, je ne dors pas ..." à Prous, 1816-11-30, https://constance-de-salm.de/archiv/#/document/4336 #onthisday</t>
+          <t>»J'ai mal à la tête, aux pieds, au dos, au côté, je ne dors pas ...« à Prous, 1816-11-30, https://constance-de-salm.de/archiv/#/document/4336 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6273,12 +6273,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:17:42</t>
+          <t>14:58:23</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"J'ai mal à la tête, aux pieds, au dos, au côté, je ne dors pas ..." à Prous, 1816-11-30, https://constance-de-salm.de/archiv/#/document/2807 #onthisday</t>
+          <t>»J'ai mal à la tête, aux pieds, au dos, au côté, je ne dors pas ...« à Prous, 1816-11-30, https://constance-de-salm.de/archiv/#/document/2807 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-12-1</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>17:07:11</t>
+          <t>14:34:53</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"En vérité, Monsieur et véritable ami, vous devez être fâché contre moi ..." à Raboteau, 1817-12-01, https://constance-de-salm.de/archiv/#/document/3940 #onthisday</t>
+          <t>»En vérité, Monsieur et véritable ami, vous devez être fâché contre moi ...« à Raboteau, 1817-12-01, https://constance-de-salm.de/archiv/#/document/3940 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024-12-2</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>17:12:27</t>
+          <t>15:40:35</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Je suis en effet dans les terres de mon mari, Monsieur, et même avec ma fille et sa famille ..." à Say, 1817-12-02, https://constance-de-salm.de/archiv/#/document/4406 #onthisday</t>
+          <t>»Je suis en effet dans les terres de mon mari, Monsieur, et même avec ma fille et sa famille ...« à Say, 1817-12-02, https://constance-de-salm.de/archiv/#/document/4406 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024-12-3</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>10:21:25</t>
+          <t>09:02:03</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"Voilà un bien long silence, Monsieur, je me le suis reproché vingt fois ..." à Raboteau, 1816-12-03, https://constance-de-salm.de/archiv/#/document/3933 #onthisday</t>
+          <t>»Voilà un bien long silence, Monsieur, je me le suis reproché vingt fois ...« à Raboteau, 1816-12-03, https://constance-de-salm.de/archiv/#/document/3933 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024-12-4</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>12:35:30</t>
+          <t>10:00:56</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Mademoiselle, la lettre et le portefeuille que vous m'avez envoyés; ..." à Salis, 1798-12-04, https://constance-de-salm.de/archiv/#/document/5134 #onthisday</t>
+          <t>»J'ai reçu, Mademoiselle, la lettre et le portefeuille que vous m'avez envoyés; ...« à Salis, 1798-12-04, https://constance-de-salm.de/archiv/#/document/5134 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024-12-5</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>09:34:31</t>
+          <t>13:17:09</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"Vous allez être bien étonné, Monsieur, de recevoir une deuxième lettre de moi ..." à Jullien de Paris, 1828-12-05, https://constance-de-salm.de/archiv/#/document/9283 #onthisday</t>
+          <t>»Vous allez être bien étonné, Monsieur, de recevoir une deuxième lettre de moi ...« à Jullien de Paris, 1828-12-05, https://constance-de-salm.de/archiv/#/document/9283 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-12-6</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>18:53:41</t>
+          <t>17:54:50</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Vous êtes trop aimable, Monsieur, votre bulletin m'a fait passer une des bonnes soirées ..." à Raboteau, 1815-12-06, https://constance-de-salm.de/archiv/#/document/3924 #onthisday</t>
+          <t>»Vous êtes trop aimable, Monsieur, votre bulletin m'a fait passer une des bonnes soirées ...« à Raboteau, 1815-12-06, https://constance-de-salm.de/archiv/#/document/3924 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024-12-6</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:13:34</t>
+          <t>12:21:10</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Vous êtes trop aimable, Monsieur, votre bulletin m'a fait passer une des bonnes soirées ..." à Raboteau, 1815-12-06, https://constance-de-salm.de/archiv/#/document/4281 #onthisday</t>
+          <t>»Vous êtes trop aimable, Monsieur, votre bulletin m'a fait passer une des bonnes soirées ...« à Raboteau, 1815-12-06, https://constance-de-salm.de/archiv/#/document/4281 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-12-7</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>17:02:41</t>
+          <t>19:00:24</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Je serais honteuse, ma chère Élève, d’avoir mis tant de temps à vous répondre ..." à Salis, 1798-12-07, https://constance-de-salm.de/archiv/#/document/8563 #onthisday</t>
+          <t>»Je serais honteuse, ma chère Élève, d’avoir mis tant de temps à vous répondre ...« à Salis, 1798-12-07, https://constance-de-salm.de/archiv/#/document/8563 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024-12-8</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:45:29</t>
+          <t>18:49:35</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur et véritable ami, que je n'ai reçu de vos nouvelles; mais je ne vous ai pas écrit ..." à Barbier, 1821-12-08, https://constance-de-salm.de/archiv/#/document/4663 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur et véritable ami, que je n'ai reçu de vos nouvelles; mais je ne vous ai pas écrit ...« à Barbier, 1821-12-08, https://constance-de-salm.de/archiv/#/document/4663 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024-12-9</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>09:18:51</t>
+          <t>14:35:51</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"Je te commence cette lettre, ma chère Minette, le soir ..." à Francq, 1815-12-09, https://constance-de-salm.de/archiv/#/document/6252 #onthisday</t>
+          <t>»Je te commence cette lettre, ma chère Minette, le soir ...« à Francq, 1815-12-09, https://constance-de-salm.de/archiv/#/document/6252 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6570,12 +6570,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>19:53:02</t>
+          <t>19:56:10</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"Serait-ce, Monsieur, vous demander une chose indiscrète que de vous engager à placer au bas du buste que Sa Majesté l’Impératrice a bien voulu me faire voir hier ..." à Béarn, 1808-12-10, https://constance-de-salm.de/archiv/#/document/2112 #onthisday</t>
+          <t>»Serait-ce, Monsieur, vous demander une chose indiscrète que de vous engager à placer au bas du buste que Sa Majesté l’Impératrice a bien voulu me faire voir hier ...« à Béarn, 1808-12-10, https://constance-de-salm.de/archiv/#/document/2112 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6597,12 +6597,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:45:50</t>
+          <t>19:57:54</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur le président, la note qui est nécessaire pour mon passe-port ..." à Pestel, 1816-12-10, https://constance-de-salm.de/archiv/#/document/4339 #onthisday</t>
+          <t>»Voici, Monsieur le président, la note qui est nécessaire pour mon passe-port ...« à Pestel, 1816-12-10, https://constance-de-salm.de/archiv/#/document/4339 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6624,12 +6624,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16:19:58</t>
+          <t>18:04:31</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"Je n'ai pas encore répondu, Monsieur, à votre bonne et aimable lettre ..." à Leroy de Bacre, 1833-12-11, https://constance-de-salm.de/archiv/#/document/5305 #onthisday</t>
+          <t>»Je n'ai pas encore répondu, Monsieur, à votre bonne et aimable lettre ...« à Leroy de Bacre, 1833-12-11, https://constance-de-salm.de/archiv/#/document/5305 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6651,12 +6651,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>19:51:03</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"Du Dieu des vers noble attribut / Pour tout le monde sur la terre / Tu n’es que le simple tribut ..." à Pugnet, 1810-12-12, https://constance-de-salm.de/archiv/#/document/2172 #onthisday</t>
+          <t>»Du Dieu des vers noble attribut / Pour tout le monde sur la terre / Tu n’es que le simple tribut ...« à Pugnet, 1810-12-12, https://constance-de-salm.de/archiv/#/document/2172 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>10:32:35</t>
+          <t>12:56:02</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"J'envoye savoir de vos nouvelles, Monsieur ..." à Prous, 1816-12-13, https://constance-de-salm.de/archiv/#/document/2809 #onthisday</t>
+          <t>»J'envoye savoir de vos nouvelles, Monsieur ...« à Prous, 1816-12-13, https://constance-de-salm.de/archiv/#/document/2809 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6705,12 +6705,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>11:35:55</t>
+          <t>15:21:28</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"Mon frère m'envoie, Monsieur, une lettre de Monsieur Gareau ..." à Pailliet, 1824-12-14, https://constance-de-salm.de/archiv/#/document/11332 #onthisday</t>
+          <t>»Mon frère m'envoie, Monsieur, une lettre de Monsieur Gareau ...« à Pailliet, 1824-12-14, https://constance-de-salm.de/archiv/#/document/11332 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:34:49</t>
+          <t>16:00:45</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"Je ne puis travailler ce matin, ma chère Minette, ayant mille embarras ..." à Francq, 1815-12-15, https://constance-de-salm.de/archiv/#/document/6256 #onthisday</t>
+          <t>»Je ne puis travailler ce matin, ma chère Minette, ayant mille embarras ...« à Francq, 1815-12-15, https://constance-de-salm.de/archiv/#/document/6256 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>12:40:02</t>
+          <t>14:36:02</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Vous avez raison, mon cher Anténor, d’être surpris de mon long silence ..." à Lantier, 1825-12-16, https://constance-de-salm.de/archiv/#/document/8977 #onthisday</t>
+          <t>»Vous avez raison, mon cher Anténor, d’être surpris de mon long silence ...« à Lantier, 1825-12-16, https://constance-de-salm.de/archiv/#/document/8977 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>09:02:04</t>
+          <t>17:14:38</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Un mal de reins, de jambes, de dos, de partout ..." à Prous, 1816-12-17, https://constance-de-salm.de/archiv/#/document/4341 #onthisday</t>
+          <t>»Un mal de reins, de jambes, de dos, de partout ...« à Prous, 1816-12-17, https://constance-de-salm.de/archiv/#/document/4341 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>09:54:01</t>
+          <t>14:31:25</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"Je pars, Monsieur et ami: mon mari me rejoindra dans 15 jours ..." à Raboteau, 1818-12-18, https://constance-de-salm.de/archiv/#/document/5786 #onthisday</t>
+          <t>»Je pars, Monsieur et ami: mon mari me rejoindra dans 15 jours ...« à Raboteau, 1818-12-18, https://constance-de-salm.de/archiv/#/document/5786 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>17:34:43</t>
+          <t>16:31:50</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"Je ne sais, Madame et amie, ce que vous pensez de mon long silence ..." à Salis, 1830-12-19, https://constance-de-salm.de/archiv/#/document/5207 #onthisday</t>
+          <t>»Je ne sais, Madame et amie, ce que vous pensez de mon long silence ...« à Salis, 1830-12-19, https://constance-de-salm.de/archiv/#/document/5207 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>17:12:14</t>
+          <t>14:39:06</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"En beaux vers ici je voudrais / Vous redire à quel point mon âme est attendrie / de ces soins qui, chassant la triste maladie / ..." à Ladoucette, 1812-12-20, https://constance-de-salm.de/archiv/#/document/2287 #onthisday</t>
+          <t>»En beaux vers ici je voudrais / Vous redire à quel point mon âme est attendrie / de ces soins qui, chassant la triste maladie / ...« à Ladoucette, 1812-12-20, https://constance-de-salm.de/archiv/#/document/2287 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>08:00:05</t>
+          <t>08:26:37</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Rien qu’un mot, ma chère Minette ..." à Francq, 1815-12-21, https://constance-de-salm.de/archiv/#/document/6258 #onthisday</t>
+          <t>»Rien qu’un mot, ma chère Minette ...« à Francq, 1815-12-21, https://constance-de-salm.de/archiv/#/document/6258 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6921,12 +6921,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>09:17:08</t>
+          <t>16:56:29</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre dernière lettre, Monsieur et ami, et je me fais un plaisir ..." à Raboteau, 1817-12-21, https://constance-de-salm.de/archiv/#/document/3941 #onthisday</t>
+          <t>»J'ai reçu hier votre dernière lettre, Monsieur et ami, et je me fais un plaisir ...« à Raboteau, 1817-12-21, https://constance-de-salm.de/archiv/#/document/3941 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6948,12 +6948,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>13:34:52</t>
+          <t>10:10:40</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"Depuis longtemps, Monsieur le comte, je me suis proposé de vous offrir le petit ouvrage ..." à Bigot de Préameneu, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4418 #onthisday</t>
+          <t>»Depuis longtemps, Monsieur le comte, je me suis proposé de vous offrir le petit ouvrage ...« à Bigot de Préameneu, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4418 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>19:27:30</t>
+          <t>12:46:58</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>"Vous êtes trop aimable, Monsieur, vos éloges me flattent infiniment ..." à Sobry, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4419 #onthisday</t>
+          <t>»Vous êtes trop aimable, Monsieur, vos éloges me flattent infiniment ...« à Sobry, 1817-12-22, https://constance-de-salm.de/archiv/#/document/4419 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7002,12 +7002,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16:19:58</t>
+          <t>19:45:06</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"„Pour Madame Minette“ . Cher frère: je suis depuis hier dans un si grand tourment d'esprit pour l’affaire de ma première femme ..." à Francq, 1814-12-24, https://constance-de-salm.de/archiv/#/document/6214 #onthisday</t>
+          <t>»„Pour Madame Minette“ . Cher frère: je suis depuis hier dans un si grand tourment d'esprit pour l’affaire de ma première femme ...« à Francq, 1814-12-24, https://constance-de-salm.de/archiv/#/document/6214 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>14:17:18</t>
+          <t>18:14:34</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Mon Dieu, Monsieur, que je suis triste de n'être pas encore avec vous tous! ..." à Barbier, 1814-12-25, https://constance-de-salm.de/archiv/#/document/2330 #onthisday</t>
+          <t>»Mon Dieu, Monsieur, que je suis triste de n'être pas encore avec vous tous! ...« à Barbier, 1814-12-25, https://constance-de-salm.de/archiv/#/document/2330 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>09:19:02</t>
+          <t>09:26:56</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps que je ne vous ai donné de mes nouvelles ..." à Salis, 1800-12-26, https://constance-de-salm.de/archiv/#/document/10425 #onthisday</t>
+          <t>»Voilà bien longtemps que je ne vous ai donné de mes nouvelles ...« à Salis, 1800-12-26, https://constance-de-salm.de/archiv/#/document/10425 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>17:49:46</t>
+          <t>16:34:01</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"Excusez mon silence, Monsieur et ami ..." à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/2331 #onthisday</t>
+          <t>»Excusez mon silence, Monsieur et ami ...« à Raboteau, 1814-12-27, https://constance-de-salm.de/archiv/#/document/2331 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>12:00:56</t>
+          <t>08:29:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"J’ai prié Monsieur Laya de vous dire, Monsieur, que quelques circonstances me forcent à reprendre mon neveu, Alfred de Salm, que nous avions mis au collège ..." à Nicolle, 1826-12-28, https://constance-de-salm.de/archiv/#/document/9050 #onthisday</t>
+          <t>»J’ai prié Monsieur Laya de vous dire, Monsieur, que quelques circonstances me forcent à reprendre mon neveu, Alfred de Salm, que nous avions mis au collège ...« à Nicolle, 1826-12-28, https://constance-de-salm.de/archiv/#/document/9050 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7137,12 +7137,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>19:01:36</t>
+          <t>10:51:34</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"Il faut que je me dépêche, si je veux t’écrire encore une fois cette année, ma chère Minette ..." à Francq, 1815-12-29, https://constance-de-salm.de/archiv/#/document/6259 #onthisday</t>
+          <t>»Il faut que je me dépêche, si je veux t’écrire encore une fois cette année, ma chère Minette ...« à Francq, 1815-12-29, https://constance-de-salm.de/archiv/#/document/6259 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>15:40:49</t>
+          <t>18:57:26</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"Votre aimable lettre est venue bien à propos, Monsieur ..." à Prous, 1815-12-29, https://constance-de-salm.de/archiv/#/document/2779 #onthisday</t>
+          <t>»Votre aimable lettre est venue bien à propos, Monsieur ...« à Prous, 1815-12-29, https://constance-de-salm.de/archiv/#/document/2779 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>09:50:19</t>
+          <t>15:28:48</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"Votre aimable lettre est venue bien à propos, Monsieur ..." à Prous, 1815-12-30, https://constance-de-salm.de/archiv/#/document/4284 #onthisday</t>
+          <t>»Votre aimable lettre est venue bien à propos, Monsieur ...« à Prous, 1815-12-30, https://constance-de-salm.de/archiv/#/document/4284 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7218,12 +7218,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>15:25:09</t>
+          <t>10:08:03</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"Chère Princesse, je pars demain pour Paris, mais inquiète depuis quelques temps de ne pas recevoir de vos nouvelles, je veux vous écrire un mot ..." à Thurn und Taxis, 1825-12-31, https://constance-de-salm.de/archiv/#/document/238 #onthisday</t>
+          <t>»Chère Princesse, je pars demain pour Paris, mais inquiète depuis quelques temps de ne pas recevoir de vos nouvelles, je veux vous écrire un mot ...« à Thurn und Taxis, 1825-12-31, https://constance-de-salm.de/archiv/#/document/238 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7240,17 +7240,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-1-1</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>13:38:39</t>
+          <t>08:26:13</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"Cette lettre n’a pas encore pu partir hier, ma chère Minette, tant j’ai souffert d’une nouvelle fluxion ..." à Francq, 1816-01-01, https://constance-de-salm.de/archiv/#/document/6260 #onthisday</t>
+          <t>»Cette lettre n’a pas encore pu partir hier, ma chère Minette, tant j’ai souffert d’une nouvelle fluxion ...« à Francq, 1816-01-01, https://constance-de-salm.de/archiv/#/document/6260 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7267,17 +7267,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-1-1</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>09:06:37</t>
+          <t>12:24:40</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"J'ai ce matin par l'usage entraînée / Voulu vous faire aussi mon compliment ..." à Thurn und Taxis, 1820-01-01, https://constance-de-salm.de/archiv/#/document/196 #onthisday</t>
+          <t>»J'ai ce matin par l'usage entraînée / Voulu vous faire aussi mon compliment ...« à Thurn und Taxis, 1820-01-01, https://constance-de-salm.de/archiv/#/document/196 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7294,17 +7294,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-1-2</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>08:15:54</t>
+          <t>17:15:46</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"Puisqu’il faut s’étrenner, en ce moment joyeux, / voici du sable d’or, d’excellent pain d‘épices ..." à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/2816 #onthisday</t>
+          <t>»Puisqu’il faut s’étrenner, en ce moment joyeux, / voici du sable d’or, d’excellent pain d‘épices ...« à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/2816 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7321,17 +7321,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-1-2</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>08:11:57</t>
+          <t>17:30:50</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"Puisqu'il faut s'étrenner en ce moment joyeux ..." à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/4421 #onthisday</t>
+          <t>»Puisqu'il faut s'étrenner en ce moment joyeux ...« à Prous, 1818-01-02, https://constance-de-salm.de/archiv/#/document/4421 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-1-3</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>17:41:53</t>
+          <t>08:29:40</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"La bonne année est un agréable moment ..." à Raboteau, 1818-01-03, https://constance-de-salm.de/archiv/#/document/3945 #onthisday</t>
+          <t>»La bonne année est un agréable moment ...« à Raboteau, 1818-01-03, https://constance-de-salm.de/archiv/#/document/3945 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7375,17 +7375,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-1-4</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:36:12</t>
+          <t>18:12:47</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier ta lettre de la fin de l‘année, ma chère Minette ..." à Francq, 1816-01-04, https://constance-de-salm.de/archiv/#/document/6262 #onthisday</t>
+          <t>»J’ai reçu hier ta lettre de la fin de l‘année, ma chère Minette ...« à Francq, 1816-01-04, https://constance-de-salm.de/archiv/#/document/6262 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-1-5</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>14:48:58</t>
+          <t>15:55:08</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a quelque temps, Madame et amie ..." à Laya, 1831-01-05, https://constance-de-salm.de/archiv/#/document/6641 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a quelque temps, Madame et amie ...« à Laya, 1831-01-05, https://constance-de-salm.de/archiv/#/document/6641 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7429,17 +7429,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-1-7</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>18:43:44</t>
+          <t>12:40:11</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Cher confrère en Apollon, je veux vous prier de me rendre un service ..." à Andrieux, 1802-01-07, https://constance-de-salm.de/archiv/#/document/8624 #onthisday</t>
+          <t>»Cher confrère en Apollon, je veux vous prier de me rendre un service ...« à Andrieux, 1802-01-07, https://constance-de-salm.de/archiv/#/document/8624 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7456,17 +7456,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-1-8</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>12:56:50</t>
+          <t>11:26:58</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"Picard vient de m’écrire, mon cher confrère, une lettre ..." à Andrieux, 1802-01-08, https://constance-de-salm.de/archiv/#/document/10327 #onthisday</t>
+          <t>»Picard vient de m’écrire, mon cher confrère, une lettre ...« à Andrieux, 1802-01-08, https://constance-de-salm.de/archiv/#/document/10327 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7483,17 +7483,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-1-9</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>18:00:17</t>
+          <t>11:21:04</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"Ne soyez ni inquiète, ni étonnée, Mademoiselle, de ne pas recevoir une réponse ..." à Salis, 1799-01-09, https://constance-de-salm.de/archiv/#/document/8567 #onthisday</t>
+          <t>»Ne soyez ni inquiète, ni étonnée, Mademoiselle, de ne pas recevoir une réponse ...« à Salis, 1799-01-09, https://constance-de-salm.de/archiv/#/document/8567 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7510,17 +7510,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-1-9</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>10:04:25</t>
+          <t>17:56:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"Ne soyez ni inquiète, ni étonnée, Mademoiselle, de ne pas recevoir une réponse ..." à Salis, 1799-01-09, https://constance-de-salm.de/archiv/#/document/10399 #onthisday</t>
+          <t>»Ne soyez ni inquiète, ni étonnée, Mademoiselle, de ne pas recevoir une réponse ...« à Salis, 1799-01-09, https://constance-de-salm.de/archiv/#/document/10399 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-1-10</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>14:26:10</t>
+          <t>16:33:13</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"Citoyens, j’ai reçu avec une vive satisfaction la lettre par laquelle vous m’annoncez ..." à N.N., 1801-01-10, https://constance-de-salm.de/archiv/#/document/8613 #onthisday</t>
+          <t>»Citoyens, j’ai reçu avec une vive satisfaction la lettre par laquelle vous m’annoncez ...« à N.N., 1801-01-10, https://constance-de-salm.de/archiv/#/document/8613 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-1-11</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16:42:34</t>
+          <t>13:31:04</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"Je commence cette lettre aujourd’hui, Monsieur, je la finirai demain, et j‘espère vous y annoncer le jour ..." à Drais, 1841-01-11, https://constance-de-salm.de/archiv/#/document/8734 #onthisday</t>
+          <t>»Je commence cette lettre aujourd’hui, Monsieur, je la finirai demain, et j‘espère vous y annoncer le jour ...« à Drais, 1841-01-11, https://constance-de-salm.de/archiv/#/document/8734 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7591,17 +7591,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-1-12</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>19:46:30</t>
+          <t>08:56:15</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"Il me semble, ma chère Minette, qu’il y a bien longtems que je ne t’ai écrit en détail ..." à Francq, 1816-01-12, https://constance-de-salm.de/archiv/#/document/6261 #onthisday</t>
+          <t>»Il me semble, ma chère Minette, qu’il y a bien longtems que je ne t’ai écrit en détail ...« à Francq, 1816-01-12, https://constance-de-salm.de/archiv/#/document/6261 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-1-13</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>15:21:19</t>
+          <t>14:21:23</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"J'arrive d'Aix-la-Chapelle, Monsieur, où, comme je vous l'ai écrit j'ai fait imprimer ..." à Pailliet, 1825-01-13, https://constance-de-salm.de/archiv/#/document/11333 #onthisday</t>
+          <t>»J'arrive d'Aix-la-Chapelle, Monsieur, où, comme je vous l'ai écrit j'ai fait imprimer ...« à Pailliet, 1825-01-13, https://constance-de-salm.de/archiv/#/document/11333 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7645,17 +7645,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-1-14</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>17:30:38</t>
+          <t>16:44:05</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"Ne m'en voulez pas, je vous prie, ma chère amie, du long silence que j'ai gardé avec vous, il est à la fois volontaire et involontaire ..." à Salis, 1803-01-14, https://constance-de-salm.de/archiv/#/document/5144 #onthisday</t>
+          <t>»Ne m'en voulez pas, je vous prie, ma chère amie, du long silence que j'ai gardé avec vous, il est à la fois volontaire et involontaire ...« à Salis, 1803-01-14, https://constance-de-salm.de/archiv/#/document/5144 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7672,17 +7672,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-1-14</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16:03:03</t>
+          <t>12:10:32</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Ne m'en veuillez pas, je vous prie, ma chère amie, du long silence que j'ai gardé avec vous, il est à la fois volontaire et involontaire ..." à Salis, 1803-01-14, https://constance-de-salm.de/archiv/#/document/8639 #onthisday</t>
+          <t>»Ne m'en veuillez pas, je vous prie, ma chère amie, du long silence que j'ai gardé avec vous, il est à la fois volontaire et involontaire ...« à Salis, 1803-01-14, https://constance-de-salm.de/archiv/#/document/8639 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7699,17 +7699,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-1-15</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>11:41:00</t>
+          <t>11:02:39</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, je ne sais si nous différerons jusqu'à jeudi l'ouverture ..." à Barbier, 1813-01-15, https://constance-de-salm.de/archiv/#/document/2290 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, je ne sais si nous différerons jusqu'à jeudi l'ouverture ...« à Barbier, 1813-01-15, https://constance-de-salm.de/archiv/#/document/2290 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7726,17 +7726,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-1-15</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>08:10:42</t>
+          <t>14:52:20</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"Mon ancien et véritable ami, vous avez été ..." à Lantier, 1821-01-15, https://constance-de-salm.de/archiv/#/document/6938 #onthisday</t>
+          <t>»Mon ancien et véritable ami, vous avez été ...« à Lantier, 1821-01-15, https://constance-de-salm.de/archiv/#/document/6938 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7753,17 +7753,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-1-16</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>13:58:51</t>
+          <t>19:47:14</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"Malgré tous les embarras dont vous devez être accablé, permettez-moi ..." à Picard, 1802-01-16, https://constance-de-salm.de/archiv/#/document/8631 #onthisday</t>
+          <t>»Malgré tous les embarras dont vous devez être accablé, permettez-moi ...« à Picard, 1802-01-16, https://constance-de-salm.de/archiv/#/document/8631 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-1-16</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>18:11:48</t>
+          <t>16:02:33</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ..." à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/10639 #onthisday</t>
+          <t>»Voilà, Monsieur et cher voisin, un roman d'Auguste Lafontaine ...« à Prous, 1821-01-16, https://constance-de-salm.de/archiv/#/document/10639 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7807,17 +7807,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-1-17</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16:52:22</t>
+          <t>15:41:49</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Monsieur, un désaveu passe, une pièce reste; ..." à Picard, 1802-01-17, https://constance-de-salm.de/archiv/#/document/8633 #onthisday</t>
+          <t>»Monsieur, un désaveu passe, une pièce reste; ...« à Picard, 1802-01-17, https://constance-de-salm.de/archiv/#/document/8633 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-1-18</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16:01:27</t>
+          <t>13:37:14</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier soir l‘épître que vous m’avez adressée, Monsieur ..." à Cubières-Palmézeaux, 1812-01-18, https://constance-de-salm.de/archiv/#/document/2244 #onthisday</t>
+          <t>»J’ai reçu hier soir l‘épître que vous m’avez adressée, Monsieur ...« à Cubières-Palmézeaux, 1812-01-18, https://constance-de-salm.de/archiv/#/document/2244 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7861,17 +7861,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-1-19</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>08:09:49</t>
+          <t>08:52:34</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"Je pars enfin, Monsieur, je serai demain à Aix-la-Chapelle; mais accablée encore ..." à Villenave, 1838-01-19, https://constance-de-salm.de/archiv/#/document/7884 #onthisday</t>
+          <t>»Je pars enfin, Monsieur, je serai demain à Aix-la-Chapelle; mais accablée encore ...« à Villenave, 1838-01-19, https://constance-de-salm.de/archiv/#/document/7884 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-1-20</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>13:31:43</t>
+          <t>11:02:54</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"Je ne vous dirai plus je ne puis vous écrire ..." à Raboteau, 1820-01-20, https://constance-de-salm.de/archiv/#/document/3983 #onthisday</t>
+          <t>»Je ne vous dirai plus je ne puis vous écrire ...« à Raboteau, 1820-01-20, https://constance-de-salm.de/archiv/#/document/3983 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7915,17 +7915,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-1-21</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>11:51:19</t>
+          <t>18:14:30</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"De votre absence je m’afflige, / Vous nous manquez à chaque instant ..." à Gudin de La Brenellerie, 1812-01-21, https://constance-de-salm.de/archiv/#/document/2249 #onthisday</t>
+          <t>»De votre absence je m’afflige, / Vous nous manquez à chaque instant ...« à Gudin de La Brenellerie, 1812-01-21, https://constance-de-salm.de/archiv/#/document/2249 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7942,17 +7942,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-1-21</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>10:43:41</t>
+          <t>08:15:36</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"Tu n’auras qu’un mot aujourd’hui, ma chère Minette, je suis épuisée d’écrire ..." à Francq, 1816-01-21, https://constance-de-salm.de/archiv/#/document/6293 #onthisday</t>
+          <t>»Tu n’auras qu’un mot aujourd’hui, ma chère Minette, je suis épuisée d’écrire ...« à Francq, 1816-01-21, https://constance-de-salm.de/archiv/#/document/6293 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7969,17 +7969,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-1-22</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>13:41:01</t>
+          <t>17:58:03</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"J'ai trouvé hier en rentrant chez moi, Monsieur, la lettre par laquelle vous me priez ..." à Jomard, 1837-01-22, https://constance-de-salm.de/archiv/#/document/11146 #onthisday</t>
+          <t>»J'ai trouvé hier en rentrant chez moi, Monsieur, la lettre par laquelle vous me priez ...« à Jomard, 1837-01-22, https://constance-de-salm.de/archiv/#/document/11146 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7996,17 +7996,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-1-23</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>15:31:05</t>
+          <t>09:35:12</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"J'ai appris avec beaucoup de satisfaction, Monsieur, que la Société d'émulation et d'agriculture de l'Ain m'a admise ..." à Gauthier (= Lacroix Gauthier?), 1812-01-23, https://constance-de-salm.de/archiv/#/document/2250 #onthisday</t>
+          <t>»J'ai appris avec beaucoup de satisfaction, Monsieur, que la Société d'émulation et d'agriculture de l'Ain m'a admise ...« à Gauthier (= Lacroix Gauthier?), 1812-01-23, https://constance-de-salm.de/archiv/#/document/2250 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8023,17 +8023,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025-1-24</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>18:25:55</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"J’ai reçu ce matin, mon cher Constant, ta lettre qui contenait celle de Madame Waldor ..." à Francq, 1834-01-24, https://constance-de-salm.de/archiv/#/document/8814 #onthisday</t>
+          <t>»J’ai reçu ce matin, mon cher Constant, ta lettre qui contenait celle de Madame Waldor ...« à Francq, 1834-01-24, https://constance-de-salm.de/archiv/#/document/8814 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8050,17 +8050,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025-1-25</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>15:36:19</t>
+          <t>15:03:39</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>" ma chère Minette, je suis donc ici ..." à Francq, 1815-01-25, https://constance-de-salm.de/archiv/#/document/6217 #onthisday</t>
+          <t>» ma chère Minette, je suis donc ici ...« à Francq, 1815-01-25, https://constance-de-salm.de/archiv/#/document/6217 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8077,17 +8077,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025-1-26</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>09:12:04</t>
+          <t>14:01:20</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Quoique j’adresse cette lettre à Monsieur Drais elle est pour toi, mon cher Constant ..." à Francq, 1834-01-26, https://constance-de-salm.de/archiv/#/document/8812 #onthisday</t>
+          <t>»Quoique j’adresse cette lettre à Monsieur Drais elle est pour toi, mon cher Constant ...« à Francq, 1834-01-26, https://constance-de-salm.de/archiv/#/document/8812 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8104,17 +8104,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025-1-27</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>11:58:28</t>
+          <t>10:00:56</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"Je sors à peine de mon lit, Monsieur, après avoir souffert ..." à Pailliet, 1825-01-27, https://constance-de-salm.de/archiv/#/document/11337 #onthisday</t>
+          <t>»Je sors à peine de mon lit, Monsieur, après avoir souffert ...« à Pailliet, 1825-01-27, https://constance-de-salm.de/archiv/#/document/11337 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8131,17 +8131,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025-1-28</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>18:56:02</t>
+          <t>12:21:52</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, c’est aujourd’hui ton jour de naissance, tu as 26 ans ..." à Francq, 1816-01-28, https://constance-de-salm.de/archiv/#/document/6267 #onthisday</t>
+          <t>»Ma chère Minette, c’est aujourd’hui ton jour de naissance, tu as 26 ans ...« à Francq, 1816-01-28, https://constance-de-salm.de/archiv/#/document/6267 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8158,17 +8158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025-1-29</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>14:23:38</t>
+          <t>18:43:21</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant ta lettre, cher frère, et j’y réponds de suite d’abord parce que je pense qu’il n’y a pas un moment ..." à Théis, 1826-01-29, https://constance-de-salm.de/archiv/#/document/10655 #onthisday</t>
+          <t>»Je reçois à l’instant ta lettre, cher frère, et j’y réponds de suite d’abord parce que je pense qu’il n’y a pas un moment ...« à Théis, 1826-01-29, https://constance-de-salm.de/archiv/#/document/10655 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8185,17 +8185,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025-1-30</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>12:27:52</t>
+          <t>14:31:58</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ..." à Lefrançois de Lalande, 1807-01-30, https://constance-de-salm.de/archiv/#/document/8689 #onthisday</t>
+          <t>»Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ...« à Lefrançois de Lalande, 1807-01-30, https://constance-de-salm.de/archiv/#/document/8689 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8212,17 +8212,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2025-1-31</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>11:24:32</t>
+          <t>17:08:54</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ..." à Lefrançois de Lalande, 1807-01-31, https://constance-de-salm.de/archiv/#/document/2072 #onthisday</t>
+          <t>»Je ne serai jamais embarrassée, Monsieur, quand il faudra dire du bien de vous ...« à Lefrançois de Lalande, 1807-01-31, https://constance-de-salm.de/archiv/#/document/2072 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8239,17 +8239,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2025-2-1</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>09:26:17</t>
+          <t>19:08:58</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm est désolée de ne pouvoir se rendre à l’invitation de ses aimables voisins; ..." à Ladoucette, 1826-02-01, https://constance-de-salm.de/archiv/#/document/8985 #onthisday</t>
+          <t>»La Princesse de Salm est désolée de ne pouvoir se rendre à l’invitation de ses aimables voisins; ...« à Ladoucette, 1826-02-01, https://constance-de-salm.de/archiv/#/document/8985 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8266,17 +8266,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2025-2-2</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>11:48:15</t>
+          <t>09:22:28</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"J’apprends par les journaux, ma très chère, que vous venez d’éprouver ce que j’ai éprouvé une fois ..." à Laya, 1827-02-02, https://constance-de-salm.de/archiv/#/document/9057 #onthisday</t>
+          <t>»J’apprends par les journaux, ma très chère, que vous venez d’éprouver ce que j’ai éprouvé une fois ...« à Laya, 1827-02-02, https://constance-de-salm.de/archiv/#/document/9057 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8293,17 +8293,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2025-2-3</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>08:05:19</t>
+          <t>11:27:44</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"Citoyens, j’apprends avec peine que plusieurs personnes m’accusent d’être l’auteur ..." à N.N., 1798-02-03, https://constance-de-salm.de/archiv/#/document/8502 #onthisday</t>
+          <t>»Citoyens, j’apprends avec peine que plusieurs personnes m’accusent d’être l’auteur ...« à N.N., 1798-02-03, https://constance-de-salm.de/archiv/#/document/8502 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8320,17 +8320,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2025-2-4</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>08:00:58</t>
+          <t>14:02:44</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant même, Monsieur, votre lettre datée du 9 janvier ..." à Pailliet, 1829-02-04, https://constance-de-salm.de/archiv/#/document/9535 #onthisday</t>
+          <t>»Je reçois à l’instant même, Monsieur, votre lettre datée du 9 janvier ...« à Pailliet, 1829-02-04, https://constance-de-salm.de/archiv/#/document/9535 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2025-2-5</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>09:37:32</t>
+          <t>18:05:38</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"Quoique chez moi l’on ait vu le jeudi / du vendredi prendre la place ..." à Gudin de La Brenellerie, 1812-02-05, https://constance-de-salm.de/archiv/#/document/2254 #onthisday</t>
+          <t>»Quoique chez moi l’on ait vu le jeudi / du vendredi prendre la place ...« à Gudin de La Brenellerie, 1812-02-05, https://constance-de-salm.de/archiv/#/document/2254 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8374,17 +8374,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2025-2-6</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>09:01:54</t>
+          <t>17:40:46</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"C'est enfin moi, Monsieur et bien véritable ami, je puis vous écrire combien j'ai été sensible au vif intérêt que vous avez pris à ma situation ..." à Barbier, 1821-02-06, https://constance-de-salm.de/archiv/#/document/4654 #onthisday</t>
+          <t>»C'est enfin moi, Monsieur et bien véritable ami, je puis vous écrire combien j'ai été sensible au vif intérêt que vous avez pris à ma situation ...« à Barbier, 1821-02-06, https://constance-de-salm.de/archiv/#/document/4654 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8401,17 +8401,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2025-2-7</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>18:45:41</t>
+          <t>11:35:29</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"J’ai reçu avant-hier ta grande lettre du 10 ..." à Francq, 1816-02-07, https://constance-de-salm.de/archiv/#/document/6279 #onthisday</t>
+          <t>»J’ai reçu avant-hier ta grande lettre du 10 ...« à Francq, 1816-02-07, https://constance-de-salm.de/archiv/#/document/6279 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8428,17 +8428,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2025-2-8</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>12:55:42</t>
+          <t>11:18:02</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"Je ne crois voir, Monsieur, dans ce que vous projetez de faire aucun inconvénient ..." à Cubières-Palmézeaux, 1812-02-08, https://constance-de-salm.de/archiv/#/document/2256 #onthisday</t>
+          <t>»Je ne crois voir, Monsieur, dans ce que vous projetez de faire aucun inconvénient ...« à Cubières-Palmézeaux, 1812-02-08, https://constance-de-salm.de/archiv/#/document/2256 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8455,17 +8455,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2025-2-8</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>14:32:14</t>
+          <t>16:08:40</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier ta lettre sur notre pauvre ami Martini, ma chère Minette ..." à Francq, 1816-02-08, https://constance-de-salm.de/archiv/#/document/6276 #onthisday</t>
+          <t>»J’ai reçu hier ta lettre sur notre pauvre ami Martini, ma chère Minette ...« à Francq, 1816-02-08, https://constance-de-salm.de/archiv/#/document/6276 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8482,17 +8482,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2025-2-9</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>19:02:50</t>
+          <t>13:42:41</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur et ami, à quel point je suis confuse de mon long silence ..." à Barbier, 1825-02-09, https://constance-de-salm.de/archiv/#/document/8931 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur et ami, à quel point je suis confuse de mon long silence ...« à Barbier, 1825-02-09, https://constance-de-salm.de/archiv/#/document/8931 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8509,17 +8509,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2025-2-11</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>13:33:16</t>
+          <t>12:18:13</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"Nous étions à raisonner sur les grandes circonstances des Blucher et compagnie ..." à Prous, 1818-02-11, https://constance-de-salm.de/archiv/#/document/4428 #onthisday</t>
+          <t>»Nous étions à raisonner sur les grandes circonstances des Blucher et compagnie ...« à Prous, 1818-02-11, https://constance-de-salm.de/archiv/#/document/4428 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8536,17 +8536,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2025-2-12</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>17:23:39</t>
+          <t>17:09:14</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"J’ai reçu une aimable lettre de vous il y a quelque temps, ma chère amie; ..." à Salis, 1804-02-12, https://constance-de-salm.de/archiv/#/document/10434 #onthisday</t>
+          <t>»J’ai reçu une aimable lettre de vous il y a quelque temps, ma chère amie; ...« à Salis, 1804-02-12, https://constance-de-salm.de/archiv/#/document/10434 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8563,17 +8563,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2025-2-13</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>15:57:22</t>
+          <t>19:15:08</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Je viens de lire votre dernier ouvrage, Madame et ancienne amie ..." à Gay, 1830-02-13, https://constance-de-salm.de/archiv/#/document/5202 #onthisday</t>
+          <t>»Je viens de lire votre dernier ouvrage, Madame et ancienne amie ...« à Gay, 1830-02-13, https://constance-de-salm.de/archiv/#/document/5202 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8590,17 +8590,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2025-2-14</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>11:22:25</t>
+          <t>10:55:31</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le pouvoir que vous avez demandé à mon mari, plus une lettre et une note de Monsieur Masselin ..." à Pailliet, 1828-02-14, https://constance-de-salm.de/archiv/#/document/11349 #onthisday</t>
+          <t>»Voici, Monsieur, le pouvoir que vous avez demandé à mon mari, plus une lettre et une note de Monsieur Masselin ...« à Pailliet, 1828-02-14, https://constance-de-salm.de/archiv/#/document/11349 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8617,17 +8617,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2025-2-15</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>11:35:24</t>
+          <t>08:57:38</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Comme le temps passe ..." à Francq, 1816-02-15, https://constance-de-salm.de/archiv/#/document/6274 #onthisday</t>
+          <t>»Comme le temps passe ...« à Francq, 1816-02-15, https://constance-de-salm.de/archiv/#/document/6274 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8644,17 +8644,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2025-2-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>11:22:01</t>
+          <t>11:28:34</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"La dame, auteur de l‘Épître jointe à cette lettre, s’empresse de l’adresser à Monsieur de Méneval ..." à Méneval, 1810-02-16, https://constance-de-salm.de/archiv/#/document/2142 #onthisday</t>
+          <t>»La dame, auteur de l‘Épître jointe à cette lettre, s’empresse de l’adresser à Monsieur de Méneval ...« à Méneval, 1810-02-16, https://constance-de-salm.de/archiv/#/document/2142 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8671,17 +8671,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2025-2-17</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>17:45:02</t>
+          <t>09:37:35</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps que je ne me suis entretenue avec vous ..." à Salis, 1822-02-17, https://constance-de-salm.de/archiv/#/document/25 #onthisday</t>
+          <t>»Qu'il y a longtemps que je ne me suis entretenue avec vous ...« à Salis, 1822-02-17, https://constance-de-salm.de/archiv/#/document/25 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8698,17 +8698,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2025-2-18</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>15:05:07</t>
+          <t>19:55:22</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"Excusez, Monsieur le baron, si je ne vous ai pas encore répondu ..." à Ladoucette, 1825-02-18, https://constance-de-salm.de/archiv/#/document/8933 #onthisday</t>
+          <t>»Excusez, Monsieur le baron, si je ne vous ai pas encore répondu ...« à Ladoucette, 1825-02-18, https://constance-de-salm.de/archiv/#/document/8933 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8725,17 +8725,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2025-2-19</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>18:50:08</t>
+          <t>08:45:19</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"Je suis en vérité honteuse, ma chère et intéressante Élève, du long temps que j’ai laissé ..." à Salis, 1799-02-19, https://constance-de-salm.de/archiv/#/document/8571 #onthisday</t>
+          <t>»Je suis en vérité honteuse, ma chère et intéressante Élève, du long temps que j’ai laissé ...« à Salis, 1799-02-19, https://constance-de-salm.de/archiv/#/document/8571 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8752,17 +8752,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2025-2-19</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>16:30:11</t>
+          <t>11:41:48</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"Je suis en vérité honteuse, ma chère et intéressante élève, du long temps que j’ai laissé ..." à Salis, 1799-02-19, https://constance-de-salm.de/archiv/#/document/10400 #onthisday</t>
+          <t>»Je suis en vérité honteuse, ma chère et intéressante élève, du long temps que j’ai laissé ...« à Salis, 1799-02-19, https://constance-de-salm.de/archiv/#/document/10400 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8779,17 +8779,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2025-2-20</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>11:32:44</t>
+          <t>08:16:08</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"Que penserez-vous de mon long silence, mon ancien ami ? ..." à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/87 #onthisday</t>
+          <t>»Que penserez-vous de mon long silence, mon ancien ami ? ...« à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/87 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8806,17 +8806,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2025-2-20</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>16:47:32</t>
+          <t>08:49:30</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"Que penserez-vous de mon long silence, mon ancien ami ? ..." à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/4864 #onthisday</t>
+          <t>»Que penserez-vous de mon long silence, mon ancien ami ? ...« à Raboteau, 1824-02-20, https://constance-de-salm.de/archiv/#/document/4864 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8833,17 +8833,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2025-2-21</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>18:14:51</t>
+          <t>11:55:43</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"Cher citoyen, je suis fâchée de votre absence ..." à Thurot, 1794-02-21, https://constance-de-salm.de/archiv/#/document/8440 #onthisday</t>
+          <t>»Cher citoyen, je suis fâchée de votre absence ...« à Thurot, 1794-02-21, https://constance-de-salm.de/archiv/#/document/8440 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8860,17 +8860,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2025-2-21</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>15:15:19</t>
+          <t>17:34:07</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"mariage n'y a rien ajouté, sous le rapport qui m‘est le plus dur et je le sentais si bien que j'ai hésité ..." à Thurn und Taxis, 1821-02-21, https://constance-de-salm.de/archiv/#/document/8252 #onthisday</t>
+          <t>»mariage n'y a rien ajouté, sous le rapport qui m‘est le plus dur et je le sentais si bien que j'ai hésité ...« à Thurn und Taxis, 1821-02-21, https://constance-de-salm.de/archiv/#/document/8252 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8887,17 +8887,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2025-2-22</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>15:03:31</t>
+          <t>10:19:04</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"J’ai vu hier, mon cher voisin, Vergifosse, qui m’a communiqué les lettres que vous lui avez écrites ..." à Maison, 1829-02-22, https://constance-de-salm.de/archiv/#/document/9313 #onthisday</t>
+          <t>»J’ai vu hier, mon cher voisin, Vergifosse, qui m’a communiqué les lettres que vous lui avez écrites ...« à Maison, 1829-02-22, https://constance-de-salm.de/archiv/#/document/9313 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8914,17 +8914,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2025-2-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16:52:34</t>
+          <t>11:54:25</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, combien je suis confuse de ne vous avoir pas encore remercié du charmant article ..." à Jullien de Paris, 1825-02-23, https://constance-de-salm.de/archiv/#/document/8935 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, combien je suis confuse de ne vous avoir pas encore remercié du charmant article ...« à Jullien de Paris, 1825-02-23, https://constance-de-salm.de/archiv/#/document/8935 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8941,17 +8941,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2025-2-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>08:08:08</t>
+          <t>13:38:06</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"Recevez mes excuses, Madame, avec votre aimabilité ordinaire, il m'est impossible de profiter ce soir de votre si agréable invitation ..." à Vien, 1830-02-23, https://constance-de-salm.de/archiv/#/document/5152 #onthisday</t>
+          <t>»Recevez mes excuses, Madame, avec votre aimabilité ordinaire, il m'est impossible de profiter ce soir de votre si agréable invitation ...« à Vien, 1830-02-23, https://constance-de-salm.de/archiv/#/document/5152 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8968,17 +8968,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2025-2-24</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>15:43:34</t>
+          <t>12:18:51</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"J’étais encore si faible et si souffrante lorsque votre aimable envoi m’est arrivé, Monsieur le Baron, qu’il m’a été ..." à Révéroni, 1826-02-24, https://constance-de-salm.de/archiv/#/document/8986 #onthisday</t>
+          <t>»J’étais encore si faible et si souffrante lorsque votre aimable envoi m’est arrivé, Monsieur le Baron, qu’il m’a été ...« à Révéroni, 1826-02-24, https://constance-de-salm.de/archiv/#/document/8986 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8995,17 +8995,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2025-2-25</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16:22:58</t>
+          <t>10:54:16</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"Sire, le petit ouvrage que je prends la liberté de joindre à cette lettre est le premier ..." à Friedrich Wilhelm III., 1825-02-25, https://constance-de-salm.de/archiv/#/document/8936 #onthisday</t>
+          <t>»Sire, le petit ouvrage que je prends la liberté de joindre à cette lettre est le premier ...« à Friedrich Wilhelm III., 1825-02-25, https://constance-de-salm.de/archiv/#/document/8936 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9022,17 +9022,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2025-2-26</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>08:33:25</t>
+          <t>14:38:29</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"Ma fille m'a écrit il y a quelque temps, Monsieur qu'elle vous avait vu ..." à Barbier, 1816-02-26, https://constance-de-salm.de/archiv/#/document/4290 #onthisday</t>
+          <t>»Ma fille m'a écrit il y a quelque temps, Monsieur qu'elle vous avait vu ...« à Barbier, 1816-02-26, https://constance-de-salm.de/archiv/#/document/4290 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9049,17 +9049,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2025-2-26</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>17:19:22</t>
+          <t>08:46:02</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"J'ai pris la part la plus vive au malheur qui vous est arrivé, mon ancien ami ..." à Thurot, 1820-02-26, https://constance-de-salm.de/archiv/#/document/4498 #onthisday</t>
+          <t>»J'ai pris la part la plus vive au malheur qui vous est arrivé, mon ancien ami ...« à Thurot, 1820-02-26, https://constance-de-salm.de/archiv/#/document/4498 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9076,17 +9076,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2025-2-27</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>08:13:14</t>
+          <t>15:43:37</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"Prince, je m’empresse de vous offrir mon opéra de „Sapho“, auquel je viens de faire quelques changements ..." à Dalberg, 1810-02-27, https://constance-de-salm.de/archiv/#/document/2143 #onthisday</t>
+          <t>»Prince, je m’empresse de vous offrir mon opéra de „Sapho“, auquel je viens de faire quelques changements ...« à Dalberg, 1810-02-27, https://constance-de-salm.de/archiv/#/document/2143 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9103,17 +9103,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2025-2-28</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>18:37:20</t>
+          <t>13:18:27</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"Sachant par mon mari, Monsieur, que dans une lettre qu’il a reçue de vous ..." à N.N., 1818-02-28, https://constance-de-salm.de/archiv/#/document/766 #onthisday</t>
+          <t>»Sachant par mon mari, Monsieur, que dans une lettre qu’il a reçue de vous ...« à N.N., 1818-02-28, https://constance-de-salm.de/archiv/#/document/766 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2025-2-29</t>
+          <t>2025-02-29</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16:12:08</t>
+          <t>16:11:31</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"Mon ancien et véritable ami, plusieurs personnes m'écrivent pour m'engager à vous recommander un littérateur bien distingué et estimable sous tous les rapports ..." à Duval, 1832-02-29, https://constance-de-salm.de/archiv/#/document/5401 #onthisday</t>
+          <t>»Mon ancien et véritable ami, plusieurs personnes m'écrivent pour m'engager à vous recommander un littérateur bien distingué et estimable sous tous les rapports ...« à Duval, 1832-02-29, https://constance-de-salm.de/archiv/#/document/5401 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9157,17 +9157,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2025-3-1</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16:13:54</t>
+          <t>19:04:27</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"Le Prince et la Princesse de Salm prient Messieurs, Madame de Villenave et Madame Waldor ..." à Villenave, 1828-03-01, https://constance-de-salm.de/archiv/#/document/11001 #onthisday</t>
+          <t>»Le Prince et la Princesse de Salm prient Messieurs, Madame de Villenave et Madame Waldor ...« à Villenave, 1828-03-01, https://constance-de-salm.de/archiv/#/document/11001 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2025-3-2</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>15:05:28</t>
+          <t>12:35:14</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre seconde lettre, Madame et chère amie ..." à Salis, 1824-03-02, https://constance-de-salm.de/archiv/#/document/60 #onthisday</t>
+          <t>»J'ai reçu votre seconde lettre, Madame et chère amie ...« à Salis, 1824-03-02, https://constance-de-salm.de/archiv/#/document/60 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9211,17 +9211,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2025-3-2</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>19:51:32</t>
+          <t>19:47:32</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre seconde lettre, Madame et chère amie ..." à Salis, 1824-03-02, https://constance-de-salm.de/archiv/#/document/10340 #onthisday</t>
+          <t>»J'ai reçu votre seconde lettre, Madame et chère amie ...« à Salis, 1824-03-02, https://constance-de-salm.de/archiv/#/document/10340 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9238,17 +9238,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2025-3-3</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16:18:28</t>
+          <t>18:15:52</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"Je n’ai jamais refusé des conseils à ceux qui m’ont crue capable ..." à Salis, 1798-03-03, https://constance-de-salm.de/archiv/#/document/10390 #onthisday</t>
+          <t>»Je n’ai jamais refusé des conseils à ceux qui m’ont crue capable ...« à Salis, 1798-03-03, https://constance-de-salm.de/archiv/#/document/10390 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9265,17 +9265,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2025-3-4</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>10:20:30</t>
+          <t>09:30:54</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"Nous étions si occupés de certaine lettre au Prince la dernière fois que je vous ai vu ..." à Ladoucette, 1841-03-04, https://constance-de-salm.de/archiv/#/document/7214 #onthisday</t>
+          <t>»Nous étions si occupés de certaine lettre au Prince la dernière fois que je vous ai vu ...« à Ladoucette, 1841-03-04, https://constance-de-salm.de/archiv/#/document/7214 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9292,17 +9292,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2025-3-5</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>12:07:21</t>
+          <t>19:55:29</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"D'où vient, ma chère, ne reçois-je point de vos nouvelles? ..." à Salis, 1800-03-05, https://constance-de-salm.de/archiv/#/document/5137 #onthisday</t>
+          <t>»D'où vient, ma chère, ne reçois-je point de vos nouvelles? ...« à Salis, 1800-03-05, https://constance-de-salm.de/archiv/#/document/5137 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9319,17 +9319,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2025-3-5</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>09:06:25</t>
+          <t>09:01:19</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"D'où vient, ma chère, ne reçois-je point de vos nouvelles? ..." à Salis, 1800-03-05, https://constance-de-salm.de/archiv/#/document/8579 #onthisday</t>
+          <t>»D'où vient, ma chère, ne reçois-je point de vos nouvelles? ...« à Salis, 1800-03-05, https://constance-de-salm.de/archiv/#/document/8579 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9346,17 +9346,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2025-3-6</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>09:21:10</t>
+          <t>14:45:02</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre touchante lettre, ma bien véritable amie, au moment même, où remplie de douleur et de regrets causés par la perte cruelle ..." à Salis, 1825-03-06, https://constance-de-salm.de/archiv/#/document/8939 #onthisday</t>
+          <t>»J’ai reçu votre touchante lettre, ma bien véritable amie, au moment même, où remplie de douleur et de regrets causés par la perte cruelle ...« à Salis, 1825-03-06, https://constance-de-salm.de/archiv/#/document/8939 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9373,17 +9373,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2025-3-7</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>12:27:34</t>
+          <t>11:28:07</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Je ne sais comment vous exprimer combien je suis touché de cette sollicitude si pleine de bonté ..." à Bernard de Rennes, 1834-03-07, https://constance-de-salm.de/archiv/#/document/5548 #onthisday</t>
+          <t>»Je ne sais comment vous exprimer combien je suis touché de cette sollicitude si pleine de bonté ...« à Bernard de Rennes, 1834-03-07, https://constance-de-salm.de/archiv/#/document/5548 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9400,17 +9400,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2025-3-8</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>19:50:40</t>
+          <t>10:38:03</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"Citoyens, la malveillance avec laquelle mon ouvrage a été entendu ..." à N.N., 1800-03-08, https://constance-de-salm.de/archiv/#/document/8582 #onthisday</t>
+          <t>»Citoyens, la malveillance avec laquelle mon ouvrage a été entendu ...« à N.N., 1800-03-08, https://constance-de-salm.de/archiv/#/document/8582 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9427,17 +9427,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2025-3-9</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>08:47:40</t>
+          <t>14:39:32</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"Air: du premier pas. Ce beau muguet en vérité m'enchante ..." à Prous, 1818-03-09, https://constance-de-salm.de/archiv/#/document/2818 #onthisday</t>
+          <t>»Air: du premier pas. Ce beau muguet en vérité m'enchante ...« à Prous, 1818-03-09, https://constance-de-salm.de/archiv/#/document/2818 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9454,17 +9454,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2025-3-9</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>08:37:23</t>
+          <t>08:35:44</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"Air: du premier pas. Ce beau muguet en vérité m'enchante ..." à Prous, 1818-03-09, https://constance-de-salm.de/archiv/#/document/4430 #onthisday</t>
+          <t>»Air: du premier pas. Ce beau muguet en vérité m'enchante ...« à Prous, 1818-03-09, https://constance-de-salm.de/archiv/#/document/4430 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9481,17 +9481,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2025-3-10</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>16:07:42</t>
+          <t>09:33:30</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"L'hiver, le froid, la solitude, des rhumes à guérir, des lettres à dicter ..." à Lantier, 1818-03-10, https://constance-de-salm.de/archiv/#/document/4431 #onthisday</t>
+          <t>»L'hiver, le froid, la solitude, des rhumes à guérir, des lettres à dicter ...« à Lantier, 1818-03-10, https://constance-de-salm.de/archiv/#/document/4431 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9508,17 +9508,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2025-3-10</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>13:03:04</t>
+          <t>09:58:35</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"Plusieurs de mes amis m’ont parlé de votre ouvrage, Monsieur, je serais charmée ..." à Gosse, 1829-03-10, https://constance-de-salm.de/archiv/#/document/9319 #onthisday</t>
+          <t>»Plusieurs de mes amis m’ont parlé de votre ouvrage, Monsieur, je serais charmée ...« à Gosse, 1829-03-10, https://constance-de-salm.de/archiv/#/document/9319 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9535,17 +9535,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2025-3-11</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>19:56:58</t>
+          <t>16:54:20</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"Monsieur Fabien Pillet m’a rendu si souvent le service de parler de mes ouvrages dans le Journal de Paris ..." à Pillet, 1829-03-11, https://constance-de-salm.de/archiv/#/document/9320 #onthisday</t>
+          <t>»Monsieur Fabien Pillet m’a rendu si souvent le service de parler de mes ouvrages dans le Journal de Paris ...« à Pillet, 1829-03-11, https://constance-de-salm.de/archiv/#/document/9320 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9562,17 +9562,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2025-3-12</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>11:43:27</t>
+          <t>15:04:28</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"Je ne sais comment j’ai gagné un gros rhume hier, mon cher voisin; ..." à Ladoucette, 1817-03-12, https://constance-de-salm.de/archiv/#/document/9060 #onthisday</t>
+          <t>»Je ne sais comment j’ai gagné un gros rhume hier, mon cher voisin; ...« à Ladoucette, 1817-03-12, https://constance-de-salm.de/archiv/#/document/9060 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9589,17 +9589,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2025-3-12</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>19:49:11</t>
+          <t>16:26:40</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"Je fais remettre chez vous, Madame et amie, deux exemplaires d’un dernier hommage ..." à Gay, 1825-03-12, https://constance-de-salm.de/archiv/#/document/8941 #onthisday</t>
+          <t>»Je fais remettre chez vous, Madame et amie, deux exemplaires d’un dernier hommage ...« à Gay, 1825-03-12, https://constance-de-salm.de/archiv/#/document/8941 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9616,17 +9616,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2025-3-13</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>10:53:01</t>
+          <t>16:56:02</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Madame, votre toute aimable lettre peu de jours après avoir écrit à Monsieur votre père ..." à Waldor, 1832-03-13, https://constance-de-salm.de/archiv/#/document/5387 #onthisday</t>
+          <t>»J'ai reçu, Madame, votre toute aimable lettre peu de jours après avoir écrit à Monsieur votre père ...« à Waldor, 1832-03-13, https://constance-de-salm.de/archiv/#/document/5387 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9643,17 +9643,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2025-3-14</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>11:03:56</t>
+          <t>18:25:00</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Quoique j'aie prié Monsieur Gay, Madame et amie, de vous témoigner ..." à Gay, 1822-03-14, https://constance-de-salm.de/archiv/#/document/26 #onthisday</t>
+          <t>»Quoique j'aie prié Monsieur Gay, Madame et amie, de vous témoigner ...« à Gay, 1822-03-14, https://constance-de-salm.de/archiv/#/document/26 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9670,17 +9670,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2025-3-14</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>10:01:27</t>
+          <t>10:15:40</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"Vous recevrez avec ce billet, Monsieur, 3 exemplaires d’un dernier hommage que j’ai rendu ..." à Buchon, 1825-03-14, https://constance-de-salm.de/archiv/#/document/8942 #onthisday</t>
+          <t>»Vous recevrez avec ce billet, Monsieur, 3 exemplaires d’un dernier hommage que j’ai rendu ...« à Buchon, 1825-03-14, https://constance-de-salm.de/archiv/#/document/8942 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9697,17 +9697,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2025-3-15</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>09:47:37</t>
+          <t>17:58:20</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"Je vous sais bien bon gré, ma chère amie, de l'intérêt que vous prenez à mon aventure ..." à Salis, 1800-03-15, https://constance-de-salm.de/archiv/#/document/8583 #onthisday</t>
+          <t>»Je vous sais bien bon gré, ma chère amie, de l'intérêt que vous prenez à mon aventure ...« à Salis, 1800-03-15, https://constance-de-salm.de/archiv/#/document/8583 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9724,17 +9724,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2025-3-16</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>12:57:09</t>
+          <t>08:08:34</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a déjà assez longtemps, Monsieur ..." à Prous, 1817-03-16, https://constance-de-salm.de/archiv/#/document/4345 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a déjà assez longtemps, Monsieur ...« à Prous, 1817-03-16, https://constance-de-salm.de/archiv/#/document/4345 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9751,17 +9751,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2025-3-17</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>10:56:18</t>
+          <t>10:00:10</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"C’est enfin moi, Monsieur, qui veux dicter quelques mots pour vous, et pour soulager mon cœur ..." à Drais, 1835-03-17, https://constance-de-salm.de/archiv/#/document/9585 #onthisday</t>
+          <t>»C’est enfin moi, Monsieur, qui veux dicter quelques mots pour vous, et pour soulager mon cœur ...« à Drais, 1835-03-17, https://constance-de-salm.de/archiv/#/document/9585 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9778,17 +9778,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2025-3-18</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>17:32:10</t>
+          <t>19:52:00</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, qui souffre beaucoup depuis quelques jours ..." à Ladoucette, 1823-03-18, https://constance-de-salm.de/archiv/#/document/8874 #onthisday</t>
+          <t>»La Princesse de Salm, qui souffre beaucoup depuis quelques jours ...« à Ladoucette, 1823-03-18, https://constance-de-salm.de/archiv/#/document/8874 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9805,17 +9805,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2025-3-19</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>18:19:24</t>
+          <t>10:11:31</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"C'est un vrai plaisir pour moi, Monsieur le baron, de trouver l'occasion de me rappeler à votre souvenir ..." à Ladoucette, 1820-03-19, https://constance-de-salm.de/archiv/#/document/4505 #onthisday</t>
+          <t>»C'est un vrai plaisir pour moi, Monsieur le baron, de trouver l'occasion de me rappeler à votre souvenir ...« à Ladoucette, 1820-03-19, https://constance-de-salm.de/archiv/#/document/4505 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9832,17 +9832,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2025-3-20</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>13:47:53</t>
+          <t>16:57:23</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"Excusez, Monsieur et ami, si j'ai été si longtemps sans vous répondre ..." à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/3927 #onthisday</t>
+          <t>»Excusez, Monsieur et ami, si j'ai été si longtemps sans vous répondre ...« à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/3927 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9859,17 +9859,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2025-3-20</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>15:52:10</t>
+          <t>11:01:55</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur et ami, que je vous dois une réponse ..." à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/4294 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur et ami, que je vous dois une réponse ...« à Raboteau, 1816-03-20, https://constance-de-salm.de/archiv/#/document/4294 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2025-3-21</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>12:36:29</t>
+          <t>18:21:27</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"Le paquet qui contient vos livres, Monsieur, est depuis assez longtemps en route ..." à Barbier, 1816-03-21, https://constance-de-salm.de/archiv/#/document/4296 #onthisday</t>
+          <t>»Le paquet qui contient vos livres, Monsieur, est depuis assez longtemps en route ...« à Barbier, 1816-03-21, https://constance-de-salm.de/archiv/#/document/4296 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9913,17 +9913,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2025-3-22</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>08:52:37</t>
+          <t>11:07:48</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"Mon mari, qui est ici depuis six semaines, Monsieur, m'a apporté une lettre ..." à Sandt, 1837-03-22, https://constance-de-salm.de/archiv/#/document/7740 #onthisday</t>
+          <t>»Mon mari, qui est ici depuis six semaines, Monsieur, m'a apporté une lettre ...« à Sandt, 1837-03-22, https://constance-de-salm.de/archiv/#/document/7740 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2025-3-23</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>19:15:34</t>
+          <t>11:53:39</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Madame de Châlot que j’ai vue hier, mon cher Docteur, m’a appris que la personne ..." à Alibert, 1836-03-23, https://constance-de-salm.de/archiv/#/document/9725 #onthisday</t>
+          <t>»Madame de Châlot que j’ai vue hier, mon cher Docteur, m’a appris que la personne ...« à Alibert, 1836-03-23, https://constance-de-salm.de/archiv/#/document/9725 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9967,17 +9967,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2025-3-24</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>11:45:43</t>
+          <t>13:20:30</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"Je regrette beaucoup de ne pas avoir été chez moi ..." à Servan de Sugny, 1830-03-24, https://constance-de-salm.de/archiv/#/document/5158 #onthisday</t>
+          <t>»Je regrette beaucoup de ne pas avoir été chez moi ...« à Servan de Sugny, 1830-03-24, https://constance-de-salm.de/archiv/#/document/5158 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9994,17 +9994,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2025-3-25</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>13:30:26</t>
+          <t>14:52:37</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"Eh! quoi, ce vendredi rempli de souvenirs / ce vendredi fameux, si cher à nos loisirs ..." à Duault, 1808-03-25, https://constance-de-salm.de/archiv/#/document/2083 #onthisday</t>
+          <t>»Eh! quoi, ce vendredi rempli de souvenirs / ce vendredi fameux, si cher à nos loisirs ...« à Duault, 1808-03-25, https://constance-de-salm.de/archiv/#/document/2083 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10021,17 +10021,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2025-3-25</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>14:32:57</t>
+          <t>11:04:47</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"Eh! quoi, ce vendredi rempli de souvenirs / ce vendredi fameux, si cher à nos loisirs ..." à Duault, 1808-03-25, https://constance-de-salm.de/archiv/#/document/8709 #onthisday</t>
+          <t>»Eh! quoi, ce vendredi rempli de souvenirs / ce vendredi fameux, si cher à nos loisirs ...« à Duault, 1808-03-25, https://constance-de-salm.de/archiv/#/document/8709 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10048,17 +10048,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2025-3-26</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>19:44:07</t>
+          <t>18:25:41</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre toute aimable lettre, mon cher Anthénor, j'en ai été charmé ..." à Lantier, 1820-03-26, https://constance-de-salm.de/archiv/#/document/4509 #onthisday</t>
+          <t>»J'ai reçu votre toute aimable lettre, mon cher Anthénor, j'en ai été charmé ...« à Lantier, 1820-03-26, https://constance-de-salm.de/archiv/#/document/4509 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10075,17 +10075,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2025-3-27</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>12:34:17</t>
+          <t>11:08:09</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"Je prie mon ancien ami, Monsieur Andrieux, de lire dans ses moments perdus, mais quand il sera sûr de n’être pas interrompu, le petit volume ..." à Andrieux, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9324 #onthisday</t>
+          <t>»Je prie mon ancien ami, Monsieur Andrieux, de lire dans ses moments perdus, mais quand il sera sûr de n’être pas interrompu, le petit volume ...« à Andrieux, 1829-03-27, https://constance-de-salm.de/archiv/#/document/9324 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10102,17 +10102,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2025-3-28</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>14:56:42</t>
+          <t>09:57:46</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"Vous êtes étonné, Monsieur le préfet, de ce que je [me] mêle d’affaires et d’administration ..." à Ladoucette, 1811-03-28, https://constance-de-salm.de/archiv/#/document/2188 #onthisday</t>
+          <t>»Vous êtes étonné, Monsieur le préfet, de ce que je [me] mêle d’affaires et d’administration ...« à Ladoucette, 1811-03-28, https://constance-de-salm.de/archiv/#/document/2188 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10129,17 +10129,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2025-3-29</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>13:46:53</t>
+          <t>15:05:10</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"et que si je ne pouvais pour ses vers ..." à Thurn und Taxis, 1821-03-29, https://constance-de-salm.de/archiv/#/document/8254 #onthisday</t>
+          <t>»et que si je ne pouvais pour ses vers ...« à Thurn und Taxis, 1821-03-29, https://constance-de-salm.de/archiv/#/document/8254 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10156,17 +10156,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2025-3-29</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>17:45:48</t>
+          <t>10:27:25</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"Madame, qu'avez-vous pensé de tout ce que je vous ai écrit ? ..." à Thurn und Taxis, 1821-03-29, https://constance-de-salm.de/archiv/#/document/5819 #onthisday</t>
+          <t>»Madame, qu'avez-vous pensé de tout ce que je vous ai écrit ? ...« à Thurn und Taxis, 1821-03-29, https://constance-de-salm.de/archiv/#/document/5819 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10183,17 +10183,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2025-3-30</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>11:56:09</t>
+          <t>10:20:15</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Mille nouveaux remerciements, Monsieur, de vos très agréables vers ..." à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/4299 #onthisday</t>
+          <t>»Mille nouveaux remerciements, Monsieur, de vos très agréables vers ...« à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/4299 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10210,17 +10210,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2025-3-30</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>09:34:11</t>
+          <t>09:26:39</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, de ce que vous savez bien ..." à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/2783 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, de ce que vous savez bien ...« à Prous, 1816-03-30, https://constance-de-salm.de/archiv/#/document/2783 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10237,17 +10237,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2025-3-31</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>17:10:28</t>
+          <t>13:36:14</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"Vous n’êtes pas venu hier, Monsieur le baron, j’en étais fâchée ..." à Ladoucette, 1829-03-31, https://constance-de-salm.de/archiv/#/document/9331 #onthisday</t>
+          <t>»Vous n’êtes pas venu hier, Monsieur le baron, j’en étais fâchée ...« à Ladoucette, 1829-03-31, https://constance-de-salm.de/archiv/#/document/9331 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2025-4-1</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>19:46:11</t>
+          <t>10:40:17</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"J’ai lu les fables, j’y ai fait des remarques et de petites marques que je veux expliquer ..." à Ladoucette, 1827-04-01, https://constance-de-salm.de/archiv/#/document/9064 #onthisday</t>
+          <t>»J’ai lu les fables, j’y ai fait des remarques et de petites marques que je veux expliquer ...« à Ladoucette, 1827-04-01, https://constance-de-salm.de/archiv/#/document/9064 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10291,17 +10291,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2025-4-2</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>13:55:30</t>
+          <t>15:04:04</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une méchante réponse à vos jolies choses; ..." à Raboteau, 1818-04-02, https://constance-de-salm.de/archiv/#/document/4434 #onthisday</t>
+          <t>»Voici, Monsieur, une méchante réponse à vos jolies choses; ...« à Raboteau, 1818-04-02, https://constance-de-salm.de/archiv/#/document/4434 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10318,17 +10318,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2025-4-2</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>14:54:35</t>
+          <t>17:14:55</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une méchante réponse à vos jolies choses ..." à Raboteau, 1818-04-02, https://constance-de-salm.de/archiv/#/document/3942 #onthisday</t>
+          <t>»Voici, Monsieur, une méchante réponse à vos jolies choses ...« à Raboteau, 1818-04-02, https://constance-de-salm.de/archiv/#/document/3942 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10345,17 +10345,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2025-4-3</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>19:33:53</t>
+          <t>11:54:40</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"Depuis quelque temps, Monsieur, j’ai été si occupée d’un ouvrage que je vais faire paraître ..." à Lemazurier, 1809-04-03, https://constance-de-salm.de/archiv/#/document/2086 #onthisday</t>
+          <t>»Depuis quelque temps, Monsieur, j’ai été si occupée d’un ouvrage que je vais faire paraître ...« à Lemazurier, 1809-04-03, https://constance-de-salm.de/archiv/#/document/2086 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10372,17 +10372,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2025-4-3</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>18:11:20</t>
+          <t>12:48:51</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"Je sais de cette femme étrange / les mystères, les embarras : ..." à Raboteau, 1818-04-03, https://constance-de-salm.de/archiv/#/document/3943 #onthisday</t>
+          <t>»Je sais de cette femme étrange / les mystères, les embarras : ...« à Raboteau, 1818-04-03, https://constance-de-salm.de/archiv/#/document/3943 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10399,17 +10399,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2025-4-4</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>13:20:02</t>
+          <t>19:17:29</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici, Monsieur ..." à Raboteau, 1806-04-04, https://constance-de-salm.de/archiv/#/document/3880 #onthisday</t>
+          <t>»J’ai reçu votre très aimable lettre peu de jours après mon arrivée ici, Monsieur ...« à Raboteau, 1806-04-04, https://constance-de-salm.de/archiv/#/document/3880 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10426,17 +10426,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2025-4-4</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>11:43:55</t>
+          <t>19:02:30</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ..." à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/4300 #onthisday</t>
+          <t>»Vous avez reçu ma lettre, Monsieur et ami, le jour même où vous m'aviez écrit ...« à Raboteau, 1816-04-04, https://constance-de-salm.de/archiv/#/document/4300 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10453,17 +10453,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2025-4-5</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>09:02:57</t>
+          <t>13:43:04</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"Vos vers sont charmants, Monsieur le comte, et véritablement trop flatteurs pour moi ..." à Roederer, 1811-04-05, https://constance-de-salm.de/archiv/#/document/2190 #onthisday</t>
+          <t>»Vos vers sont charmants, Monsieur le comte, et véritablement trop flatteurs pour moi ...« à Roederer, 1811-04-05, https://constance-de-salm.de/archiv/#/document/2190 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10480,17 +10480,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2025-4-5</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>19:36:48</t>
+          <t>15:48:56</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Je me fais un vrai plaisir de donner à Monsieur de Pongerville un volume de mes poésies et la nouvelle Épître ..." à Sanson de Pongerville, 1828-04-05, https://constance-de-salm.de/archiv/#/document/9145 #onthisday</t>
+          <t>»Je me fais un vrai plaisir de donner à Monsieur de Pongerville un volume de mes poésies et la nouvelle Épître ...« à Sanson de Pongerville, 1828-04-05, https://constance-de-salm.de/archiv/#/document/9145 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10507,17 +10507,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2025-4-6</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>13:07:14</t>
+          <t>17:44:23</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"Je n'ai qu'une minute pour vous écrire, mon cher voisin ..." à Prous, 1820-04-06, https://constance-de-salm.de/archiv/#/document/2829 #onthisday</t>
+          <t>»Je n'ai qu'une minute pour vous écrire, mon cher voisin ...« à Prous, 1820-04-06, https://constance-de-salm.de/archiv/#/document/2829 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10534,17 +10534,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2025-4-6</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>18:39:15</t>
+          <t>19:31:29</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"Je n'ai qu'une minute pour vous écrire, mon cher voisin ..." à Prous, 1820-04-06, https://constance-de-salm.de/archiv/#/document/4510 #onthisday</t>
+          <t>»Je n'ai qu'une minute pour vous écrire, mon cher voisin ...« à Prous, 1820-04-06, https://constance-de-salm.de/archiv/#/document/4510 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10561,17 +10561,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2025-4-7</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>14:14:37</t>
+          <t>18:42:52</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"J’ai vu hier, Mademoiselle, la personne que vous aviez chargée de m’apporter votre lettre ..." à Salis, 1798-04-07, https://constance-de-salm.de/archiv/#/document/8516 #onthisday</t>
+          <t>»J’ai vu hier, Mademoiselle, la personne que vous aviez chargée de m’apporter votre lettre ...« à Salis, 1798-04-07, https://constance-de-salm.de/archiv/#/document/8516 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10588,17 +10588,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2025-4-8</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>11:57:33</t>
+          <t>13:30:16</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"Ma chère Minette, je n'ai plus de tes lettres depuis 4 jours ..." à Francq, 1815-04-08, https://constance-de-salm.de/archiv/#/document/6190 #onthisday</t>
+          <t>»Ma chère Minette, je n'ai plus de tes lettres depuis 4 jours ...« à Francq, 1815-04-08, https://constance-de-salm.de/archiv/#/document/6190 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10615,17 +10615,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2025-4-8</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>11:45:19</t>
+          <t>13:14:01</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit hier en grande hâte, mon cher voisin ..." à Prous, 1820-04-08, https://constance-de-salm.de/archiv/#/document/2830 #onthisday</t>
+          <t>»Je vous ai écrit hier en grande hâte, mon cher voisin ...« à Prous, 1820-04-08, https://constance-de-salm.de/archiv/#/document/2830 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2025-4-9</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>18:48:52</t>
+          <t>18:28:35</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"La société de Dyck a reçu avec le plus grand plaisir tout ce que Monsieur Prous lui a envoyé avant-hier ..." à Prous, 1818-04-09, https://constance-de-salm.de/archiv/#/document/9303 #onthisday</t>
+          <t>»La société de Dyck a reçu avec le plus grand plaisir tout ce que Monsieur Prous lui a envoyé avant-hier ...« à Prous, 1818-04-09, https://constance-de-salm.de/archiv/#/document/9303 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10669,17 +10669,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2025-4-9</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>09:05:45</t>
+          <t>09:20:36</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"La société de Dyck a reçu avec le plus grand plaisir tout ce que Monsieur Prous ..." à Prous, 1818-04-09, https://constance-de-salm.de/archiv/#/document/4436 #onthisday</t>
+          <t>»La société de Dyck a reçu avec le plus grand plaisir tout ce que Monsieur Prous ...« à Prous, 1818-04-09, https://constance-de-salm.de/archiv/#/document/4436 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10696,17 +10696,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2025-4-10</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>15:27:29</t>
+          <t>08:23:16</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur et ami, que je n'ai jasé avec vous! ..." à Barbier, 1821-04-10, https://constance-de-salm.de/archiv/#/document/4656 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur et ami, que je n'ai jasé avec vous! ...« à Barbier, 1821-04-10, https://constance-de-salm.de/archiv/#/document/4656 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2025-4-11</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>17:05:04</t>
+          <t>12:28:25</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"Bon jour, bonne venue, Monsieur, je trouve enfin le moment de vous dire un mot ..." à Prous, 1816-04-11, https://constance-de-salm.de/archiv/#/document/4302 #onthisday</t>
+          <t>»Bon jour, bonne venue, Monsieur, je trouve enfin le moment de vous dire un mot ...« à Prous, 1816-04-11, https://constance-de-salm.de/archiv/#/document/4302 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10750,17 +10750,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2025-4-12</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>14:11:28</t>
+          <t>11:49:32</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"Bonjour, bonne venue, Monsieur; je trouve enfin le moment de vous dire un mot sur votre aimable dernière lettre ..." à Prous, 1816-04-12, https://constance-de-salm.de/archiv/#/document/2784 #onthisday</t>
+          <t>»Bonjour, bonne venue, Monsieur; je trouve enfin le moment de vous dire un mot sur votre aimable dernière lettre ...« à Prous, 1816-04-12, https://constance-de-salm.de/archiv/#/document/2784 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2025-4-12</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>11:21:55</t>
+          <t>14:37:50</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"Bonjour, bonne venue, Monsieur; je trouve enfin le moment de vous dire un mot sur votre aimable dernière lettre ..." à Prous, 1816-04-12, https://constance-de-salm.de/archiv/#/document/8850 #onthisday</t>
+          <t>»Bonjour, bonne venue, Monsieur; je trouve enfin le moment de vous dire un mot sur votre aimable dernière lettre ...« à Prous, 1816-04-12, https://constance-de-salm.de/archiv/#/document/8850 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10804,17 +10804,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2025-4-13</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>10:12:51</t>
+          <t>18:34:26</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"Monsieur le Président! Je suis fort sensible à la confiance que l’Athénée me témoigne ..." à Fourcroy, 1807-04-13, https://constance-de-salm.de/archiv/#/document/2075 #onthisday</t>
+          <t>»Monsieur le Président! Je suis fort sensible à la confiance que l’Athénée me témoigne ...« à Fourcroy, 1807-04-13, https://constance-de-salm.de/archiv/#/document/2075 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10831,17 +10831,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2025-4-13</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>10:45:49</t>
+          <t>09:25:50</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"Monsieur le Président! Je suis fort sensible à la confiance que l’Athénée me témoigne ..." à Fourcroy, 1807-04-13, https://constance-de-salm.de/archiv/#/document/8694 #onthisday</t>
+          <t>»Monsieur le Président! Je suis fort sensible à la confiance que l’Athénée me témoigne ...« à Fourcroy, 1807-04-13, https://constance-de-salm.de/archiv/#/document/8694 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10858,17 +10858,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2025-4-14</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>13:56:02</t>
+          <t>19:39:03</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"Je compose une grande lettre de petits billets, Monsieur et ami ..." à Raboteau, 1813-04-14, https://constance-de-salm.de/archiv/#/document/2297 #onthisday</t>
+          <t>»Je compose une grande lettre de petits billets, Monsieur et ami ...« à Raboteau, 1813-04-14, https://constance-de-salm.de/archiv/#/document/2297 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10885,17 +10885,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2025-4-14</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>18:23:51</t>
+          <t>10:23:36</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"Je compose une grande lettre de petits billets, Monsieur et ami ..." à Raboteau, 1813-04-14, https://constance-de-salm.de/archiv/#/document/3909 #onthisday</t>
+          <t>»Je compose une grande lettre de petits billets, Monsieur et ami ...« à Raboteau, 1813-04-14, https://constance-de-salm.de/archiv/#/document/3909 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10912,17 +10912,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2025-4-15</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>13:53:43</t>
+          <t>10:07:42</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Sire, je prends la liberté de présenter à Votre Majesté Impériale et Royale, un recueil de mes poésies ..." à Napoléon Ier Bonaparte, 1811-04-15, https://constance-de-salm.de/archiv/#/document/2195 #onthisday</t>
+          <t>»Sire, je prends la liberté de présenter à Votre Majesté Impériale et Royale, un recueil de mes poésies ...« à Napoléon Ier Bonaparte, 1811-04-15, https://constance-de-salm.de/archiv/#/document/2195 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10939,17 +10939,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2025-4-15</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>12:55:39</t>
+          <t>16:22:49</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"Monsieur Amalric m'assure, Monsieur, que vous voulez bien avoir la complaisance de vous charger de présenter à l'Empereur ..." à Barbier, 1811-04-15, https://constance-de-salm.de/archiv/#/document/2194 #onthisday</t>
+          <t>»Monsieur Amalric m'assure, Monsieur, que vous voulez bien avoir la complaisance de vous charger de présenter à l'Empereur ...« à Barbier, 1811-04-15, https://constance-de-salm.de/archiv/#/document/2194 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2025-4-16</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>17:30:44</t>
+          <t>19:17:42</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"Il est affreux d'avoir à refuser ce qu'on voudrait bien accorder ..." à Prous, 1816-04-16, https://constance-de-salm.de/archiv/#/document/4303 #onthisday</t>
+          <t>»Il est affreux d'avoir à refuser ce qu'on voudrait bien accorder ...« à Prous, 1816-04-16, https://constance-de-salm.de/archiv/#/document/4303 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10993,17 +10993,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2025-4-17</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>10:13:42</t>
+          <t>16:04:27</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>"Je ne veux point différer encore le départ de cette lettre, mon cher ami, puisque je n’ai pas le loisir d’y joindre beaucoup d’autres détails ..." à Mentelle, 1813-04-17, https://constance-de-salm.de/archiv/#/document/3294 #onthisday</t>
+          <t>»Je ne veux point différer encore le départ de cette lettre, mon cher ami, puisque je n’ai pas le loisir d’y joindre beaucoup d’autres détails ...« à Mentelle, 1813-04-17, https://constance-de-salm.de/archiv/#/document/3294 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11020,17 +11020,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2025-4-17</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>14:08:13</t>
+          <t>16:39:13</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ..." à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/8282 #onthisday</t>
+          <t>»Il faut que je jase avec vous, mon ancien ami; c'est un besoin pour mon cœur toujours agité ...« à Raboteau, 1821-04-17, https://constance-de-salm.de/archiv/#/document/8282 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11047,17 +11047,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2025-4-18</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>14:37:22</t>
+          <t>17:34:47</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir, Monsieur, la boîte qui renfermait ..." à Barbier, 1815-04-18, https://constance-de-salm.de/archiv/#/document/4269 #onthisday</t>
+          <t>»Je viens de recevoir, Monsieur, la boîte qui renfermait ...« à Barbier, 1815-04-18, https://constance-de-salm.de/archiv/#/document/4269 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11074,17 +11074,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2025-4-19</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>14:23:31</t>
+          <t>14:57:32</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre, Monsieur le baron, en même temps que le „Constitutionnel“ ..." à Ladoucette, 1832-04-19, https://constance-de-salm.de/archiv/#/document/5404 #onthisday</t>
+          <t>»J'ai reçu votre lettre, Monsieur le baron, en même temps que le „Constitutionnel“ ...« à Ladoucette, 1832-04-19, https://constance-de-salm.de/archiv/#/document/5404 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11101,17 +11101,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2025-4-20</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>16:15:37</t>
+          <t>19:36:07</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"J’ai lu le bon ouvrage que vous m’avez envoyé, Monsieur et ancien ami, et j’y ai reconnu sans peine ..." à Girodet-Trioson, 1807-04-20, https://constance-de-salm.de/archiv/#/document/2076 #onthisday</t>
+          <t>»J’ai lu le bon ouvrage que vous m’avez envoyé, Monsieur et ancien ami, et j’y ai reconnu sans peine ...« à Girodet-Trioson, 1807-04-20, https://constance-de-salm.de/archiv/#/document/2076 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11128,17 +11128,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2025-4-20</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>15:15:51</t>
+          <t>17:15:35</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"J’ai lu le bon ouvrage que vous m’avez envoyé, Monsieur et ancien ami, et j’y ai reconnu sans peine ..." à Girodet-Trioson, 1807-04-20, https://constance-de-salm.de/archiv/#/document/8695 #onthisday</t>
+          <t>»J’ai lu le bon ouvrage que vous m’avez envoyé, Monsieur et ancien ami, et j’y ai reconnu sans peine ...« à Girodet-Trioson, 1807-04-20, https://constance-de-salm.de/archiv/#/document/8695 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11155,17 +11155,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2025-4-21</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>14:39:24</t>
+          <t>15:17:37</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"Je ne reçois encore aucune nouvelle de toi, de mon frère, ni de personne de mes connaissances, ma chère Minette: ..." à Francq, 1815-04-21, https://constance-de-salm.de/archiv/#/document/6220 #onthisday</t>
+          <t>»Je ne reçois encore aucune nouvelle de toi, de mon frère, ni de personne de mes connaissances, ma chère Minette: ...« à Francq, 1815-04-21, https://constance-de-salm.de/archiv/#/document/6220 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11182,17 +11182,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2025-4-22</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>17:56:20</t>
+          <t>13:47:15</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"Je reçois ici votre dernière lettre, Monsieur et ami ..." à Raboteau, 1813-04-22, https://constance-de-salm.de/archiv/#/document/3913 #onthisday</t>
+          <t>»Je reçois ici votre dernière lettre, Monsieur et ami ...« à Raboteau, 1813-04-22, https://constance-de-salm.de/archiv/#/document/3913 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11209,17 +11209,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2025-4-23</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>17:15:03</t>
+          <t>12:44:00</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"Voici un journal d'hier, mon cher voisin, vous y verrez la crainte ..." à Prous, 1821-04-23, https://constance-de-salm.de/archiv/#/document/4554 #onthisday</t>
+          <t>»Voici un journal d'hier, mon cher voisin, vous y verrez la crainte ...« à Prous, 1821-04-23, https://constance-de-salm.de/archiv/#/document/4554 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11236,17 +11236,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2025-4-23</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>09:41:10</t>
+          <t>12:02:26</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"Voici un journal d'hier, mon cher voisin, vous y verrez la crainte ..." à Prous, 1821-04-23, https://constance-de-salm.de/archiv/#/document/2840 #onthisday</t>
+          <t>»Voici un journal d'hier, mon cher voisin, vous y verrez la crainte ...« à Prous, 1821-04-23, https://constance-de-salm.de/archiv/#/document/2840 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11263,17 +11263,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2025-4-24</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>09:19:32</t>
+          <t>16:23:54</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, une lettre pour un ancien maire de Liedberg ..." à Prous, 1816-04-24, https://constance-de-salm.de/archiv/#/document/2786 #onthisday</t>
+          <t>»Voici, Monsieur, une lettre pour un ancien maire de Liedberg ...« à Prous, 1816-04-24, https://constance-de-salm.de/archiv/#/document/2786 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11290,17 +11290,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2025-4-25</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>16:47:30</t>
+          <t>12:14:15</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur et ami, que je ne vous ai écrit ..." à Barbier, 1822-04-25, https://constance-de-salm.de/archiv/#/document/28 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur et ami, que je ne vous ai écrit ...« à Barbier, 1822-04-25, https://constance-de-salm.de/archiv/#/document/28 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -11317,17 +11317,17 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2025-4-25</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>10:12:57</t>
+          <t>14:47:57</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>"Madame la Princesse qui a reçu votre dernière lettre, Monsieur, et qui est fort occupée ..." à Barbier, 1825-04-25, https://constance-de-salm.de/archiv/#/document/8948 #onthisday</t>
+          <t>»Madame la Princesse qui a reçu votre dernière lettre, Monsieur, et qui est fort occupée ...« à Barbier, 1825-04-25, https://constance-de-salm.de/archiv/#/document/8948 #onthisday</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
